--- a/src/assets/colors.xlsx
+++ b/src/assets/colors.xlsx
@@ -305,22 +305,22 @@
     <t>1129FF</t>
   </si>
   <si>
-    <t>1580FF</t>
-  </si>
-  <si>
-    <t>1363FF</t>
-  </si>
-  <si>
-    <t>8272FF</t>
-  </si>
-  <si>
-    <t>7365FF</t>
-  </si>
-  <si>
-    <t>5850FF</t>
-  </si>
-  <si>
-    <t>8770FF</t>
+    <t>001580</t>
+  </si>
+  <si>
+    <t>001363</t>
+  </si>
+  <si>
+    <t>008272</t>
+  </si>
+  <si>
+    <t>007365</t>
+  </si>
+  <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>008770</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,43 +3570,43 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" si="1"/>
+      <c r="D65" t="str">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="2"/>
-        <v>FF</v>
-      </c>
       <c r="E65">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="4"/>
+      <c r="G65">
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
       <c r="H65">
         <f t="shared" si="6"/>
-        <v>404</v>
+        <v>149</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="7"/>
-        <v>light</v>
+        <v>dark</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="8"/>
-        <v>000000</v>
+        <v>FFFFFF</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="9"/>
-        <v>{"background": "#1580FF", "foreground": "#000000"}</v>
+        <v>{"background": "#001580", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3615,31 +3615,31 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C66" t="str">
-        <f t="shared" si="1"/>
+      <c r="D66" t="str">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="2"/>
-        <v>FF</v>
-      </c>
       <c r="E66">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="4"/>
+      <c r="G66">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="5"/>
-        <v>255</v>
-      </c>
       <c r="H66">
         <f t="shared" si="6"/>
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="7"/>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="K66" t="str">
         <f t="shared" si="9"/>
-        <v>{"background": "#1363FF", "foreground": "#FFFFFF"}</v>
+        <v>{"background": "#001363", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3660,43 +3660,43 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B106" si="10">MID(A67,1,2)</f>
-        <v>82</v>
+        <v>00</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C106" si="11">MID(A67,3,2)</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D106" si="12">MID(A67,5,2)</f>
-        <v>FF</v>
+        <v>72</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E106" si="13">HEX2DEC(B67)</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F106" si="14">HEX2DEC(C67)</f>
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G106" si="15">HEX2DEC(D67)</f>
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H106" si="16">SUM(E67:G67)</f>
-        <v>499</v>
+        <v>244</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I106" si="17">IF(H67&gt;382,"light","dark")</f>
-        <v>light</v>
+        <v>dark</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" ref="J67:J106" si="18">IF(H67&gt;382,"000000","FFFFFF")</f>
-        <v>000000</v>
+        <v>FFFFFF</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" ref="K67:K106" si="19">SUBSTITUTE(_xlfn.CONCAT("{'background': '#",A67,"', 'foreground': '#",J67,"'}"),"'","""")</f>
-        <v>{"background": "#8272FF", "foreground": "#000000"}</v>
+        <v>{"background": "#008272", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3750,43 +3750,43 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>00</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="11"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="12"/>
-        <v>FF</v>
+        <v>65</v>
       </c>
       <c r="E69">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <f t="shared" si="14"/>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G69">
         <f t="shared" si="15"/>
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="H69">
         <f t="shared" si="16"/>
-        <v>471</v>
+        <v>216</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="17"/>
-        <v>light</v>
+        <v>dark</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="18"/>
-        <v>000000</v>
+        <v>FFFFFF</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="19"/>
-        <v>{"background": "#7365FF", "foreground": "#000000"}</v>
+        <v>{"background": "#007365", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3795,43 +3795,43 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" si="10"/>
-        <v>58</v>
+        <v>00</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="12"/>
-        <v>FF</v>
+        <v>50</v>
       </c>
       <c r="E70">
         <f t="shared" si="13"/>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G70">
         <f t="shared" si="15"/>
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="H70">
         <f t="shared" si="16"/>
-        <v>423</v>
+        <v>168</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="17"/>
-        <v>light</v>
+        <v>dark</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="18"/>
-        <v>000000</v>
+        <v>FFFFFF</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="19"/>
-        <v>{"background": "#5850FF", "foreground": "#000000"}</v>
+        <v>{"background": "#005850", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,43 +3975,43 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="10"/>
-        <v>87</v>
+        <v>00</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="12"/>
-        <v>FF</v>
+        <v>70</v>
       </c>
       <c r="E74">
         <f t="shared" si="13"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <f t="shared" si="14"/>
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="G74">
         <f t="shared" si="15"/>
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="H74">
         <f t="shared" si="16"/>
-        <v>502</v>
+        <v>247</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="17"/>
-        <v>light</v>
+        <v>dark</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="18"/>
-        <v>000000</v>
+        <v>FFFFFF</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="19"/>
-        <v>{"background": "#8770FF", "foreground": "#000000"}</v>
+        <v>{"background": "#008770", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5457,5 +5457,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A65" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/assets/colors.xlsx
+++ b/src/assets/colors.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-cherrw\Dropbox\Code\vsimages\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chryw\Dropbox\Code\vsimages\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8958"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>FFF200</t>
   </si>
@@ -683,18 +683,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
@@ -729,7 +729,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
         <v>{"background": "#FFF200", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
         <v>{"background": "#FFF100", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -864,7 +864,7 @@
         <v>{"background": "#FFF880", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -909,7 +909,7 @@
         <v>{"background": "#F0E300", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -954,7 +954,7 @@
         <v>{"background": "#CCC000", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -999,7 +999,7 @@
         <v>{"background": "#FFB900", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>{"background": "#FFCB40", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>{"background": "#F0AE00", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>{"background": "#C78E00", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>{"background": "#FF8C00", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>{"background": "#FFA940", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>{"background": "#F08400", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>{"background": "#BA6800", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>{"background": "#D83B01", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>{"background": "#E26C41", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>{"background": "#BD3604", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>{"background": "#9C2801", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>{"background": "#E81123", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>{"background": "#EE4D5A", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>{"background": "#D91021", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>{"background": "#A3111E", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>{"background": "#A80000", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>{"background": "#BE4040", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>990000</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>{"background": "#990000", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>750000</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>{"background": "#750000", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>{"background": "#B4009E", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>{"background": "#C740B6", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>{"background": "#9E008B", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>850063</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>{"background": "#850063", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>{"background": "#E3008C", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>{"background": "#EA40A9", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>{"background": "#D40083", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>{"background": "#9C005F", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>{"background": "#5C005C", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>854085</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>{"background": "#854085", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>{"background": "#4D004D", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <v>380038</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>{"background": "#380038", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>{"background": "#5C2D91", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>{"background": "#8562AD", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <v>522882</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>{"background": "#522882", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <v>401467</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>{"background": "#401467", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>{"background": "#B4A0FF", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>{"background": "#C7B8FF", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>{"background": "#A996F0", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
         <v>37</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>{"background": "#9080CF", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>{"background": "#32145A", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
         <v>39</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>{"background": "#654F83", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>{"background": "#28114A", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
         <v>41</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>{"background": "#220C3D", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>42</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>{"background": "#0078D7", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>{"background": "#409AE1", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>{"background": "#006FC8", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
         <v>90</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>{"background": "#5291FF", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
         <v>45</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>{"background": "#00BCF2", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
         <v>46</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>{"background": "#40CDF5", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>{"background": "#00B0E3", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>{"background": "#0086AD", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
         <v>91</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>{"background": "#2050FF", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
         <v>49</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>{"background": "#40587C", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
         <v>50</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>{"background": "#001A41", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
         <v>92</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>{"background": "#1129FF", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
         <v>51</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>{"background": "#00188F", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
         <v>52</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>{"background": "#4052AB", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
         <v>93</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>{"background": "#001580", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
         <v>94</v>
       </c>
@@ -3654,52 +3654,52 @@
         <v>{"background": "#001363", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B106" si="10">MID(A67,1,2)</f>
+        <f t="shared" ref="B67:B105" si="10">MID(A67,1,2)</f>
         <v>00</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C106" si="11">MID(A67,3,2)</f>
+        <f t="shared" ref="C67:C105" si="11">MID(A67,3,2)</f>
         <v>82</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D106" si="12">MID(A67,5,2)</f>
+        <f t="shared" ref="D67:D105" si="12">MID(A67,5,2)</f>
         <v>72</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E106" si="13">HEX2DEC(B67)</f>
+        <f t="shared" ref="E67:E105" si="13">HEX2DEC(B67)</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F106" si="14">HEX2DEC(C67)</f>
+        <f t="shared" ref="F67:F105" si="14">HEX2DEC(C67)</f>
         <v>130</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G106" si="15">HEX2DEC(D67)</f>
+        <f t="shared" ref="G67:G105" si="15">HEX2DEC(D67)</f>
         <v>114</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H106" si="16">SUM(E67:G67)</f>
+        <f t="shared" ref="H67:H105" si="16">SUM(E67:G67)</f>
         <v>244</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I106" si="17">IF(H67&gt;382,"light","dark")</f>
+        <f t="shared" ref="I67:I105" si="17">IF(H67&gt;382,"light","dark")</f>
         <v>dark</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J106" si="18">IF(H67&gt;382,"000000","FFFFFF")</f>
+        <f t="shared" ref="J67:J105" si="18">IF(H67&gt;382,"000000","FFFFFF")</f>
         <v>FFFFFF</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K106" si="19">SUBSTITUTE(_xlfn.CONCAT("{'background': '#",A67,"', 'foreground': '#",J67,"'}"),"'","""")</f>
+        <f t="shared" ref="K67:K105" si="19">SUBSTITUTE(_xlfn.CONCAT("{'background': '#",A67,"', 'foreground': '#",J67,"'}"),"'","""")</f>
         <v>{"background": "#008272", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>53</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>{"background": "#40A195", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>{"background": "#007365", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
         <v>97</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>{"background": "#005850", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
         <v>54</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>{"background": "#00B294", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3" t="s">
         <v>55</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>{"background": "#40C5AF", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>{"background": "#00A387", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>98</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>{"background": "#008770", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
         <v>57</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>{"background": "#004B50", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>{"background": "#40787C", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
         <v>59</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>{"background": "#003D41", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3" t="s">
         <v>60</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>{"background": "#002F33", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3" t="s">
         <v>61</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>{"background": "#107C10", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3" t="s">
         <v>62</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>{"background": "#4C9D4C", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3" t="s">
         <v>63</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>{"background": "#0E6D0E", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3">
         <v>106110</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>{"background": "#106110", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="s">
         <v>64</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>{"background": "#BAD80A", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3" t="s">
         <v>65</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>{"background": "#CBE247", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3" t="s">
         <v>66</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>{"background": "#ADC909", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3" t="s">
         <v>67</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>{"background": "#91A80A", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3" t="s">
         <v>68</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>{"background": "#004B1C", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <v>407855</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>{"background": "#407855", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3" t="s">
         <v>69</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>{"background": "#003C16", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3" t="s">
         <v>70</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>{"background": "#00240D", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
         <v>505050</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>{"background": "#505050", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
         <v>282828</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>{"background": "#282828", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3" t="s">
         <v>71</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>{"background": "#D2D2D2", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3" t="s">
         <v>72</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>{"background": "#F3F3F3", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3" t="s">
         <v>73</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>{"background": "#E6E6E6", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
         <v>939393</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>{"background": "#939393", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3">
         <v>737373</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>{"background": "#737373", "foreground": "#FFFFFF"}</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3" t="s">
         <v>74</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>{"background": "#C2C2C2", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3" t="s">
         <v>75</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>{"background": "#B2B2B2", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
         <v>76</v>
       </c>
@@ -5184,127 +5184,127 @@
         <v>{"background": "#FFFFFF", "foreground": "#000000"}</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="10"/>
-        <v>E6</v>
+        <v>8E</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="11"/>
-        <v>E6</v>
+        <v>56</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="12"/>
-        <v>E6</v>
+        <v>2E</v>
       </c>
       <c r="E101">
         <f t="shared" si="13"/>
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="F101">
         <f t="shared" si="14"/>
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="G101">
         <f t="shared" si="15"/>
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H101">
         <f t="shared" si="16"/>
-        <v>690</v>
+        <v>274</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="17"/>
-        <v>light</v>
+        <v>dark</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="18"/>
-        <v>000000</v>
+        <v>FFFFFF</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="19"/>
-        <v>{"background": "#E6E6E6", "foreground": "#000000"}</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{"background": "#8E562E", "foreground": "#FFFFFF"}</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="10"/>
-        <v>8E</v>
+        <v>D8</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>B0</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="12"/>
-        <v>2E</v>
+        <v>94</v>
       </c>
       <c r="E102">
         <f t="shared" si="13"/>
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="F102">
         <f t="shared" si="14"/>
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="G102">
         <f t="shared" si="15"/>
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="H102">
         <f t="shared" si="16"/>
-        <v>274</v>
+        <v>540</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="17"/>
-        <v>dark</v>
+        <v>light</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="18"/>
-        <v>FFFFFF</v>
+        <v>000000</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="19"/>
-        <v>{"background": "#8E562E", "foreground": "#FFFFFF"}</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{"background": "#D8B094", "foreground": "#000000"}</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="10"/>
-        <v>D8</v>
+        <v>BB</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="11"/>
-        <v>B0</v>
+        <v>91</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="12"/>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E103">
         <f t="shared" si="13"/>
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="F103">
         <f t="shared" si="14"/>
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G103">
         <f t="shared" si="15"/>
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="H103">
         <f t="shared" si="16"/>
-        <v>540</v>
+        <v>435</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="17"/>
@@ -5316,140 +5316,95 @@
       </c>
       <c r="K103" t="str">
         <f t="shared" si="19"/>
-        <v>{"background": "#D8B094", "foreground": "#000000"}</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{"background": "#BB9167", "foreground": "#000000"}</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="10"/>
-        <v>BB</v>
+        <v>61</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="11"/>
-        <v>91</v>
+        <v>3D</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="12"/>
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E104">
         <f t="shared" si="13"/>
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="F104">
         <f t="shared" si="14"/>
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="G104">
         <f t="shared" si="15"/>
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="H104">
         <f t="shared" si="16"/>
-        <v>435</v>
+        <v>206</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="17"/>
-        <v>light</v>
+        <v>dark</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="18"/>
-        <v>000000</v>
+        <v>FFFFFF</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" si="19"/>
-        <v>{"background": "#BB9167", "foreground": "#000000"}</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{"background": "#613D30", "foreground": "#FFFFFF"}</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="10"/>
-        <v>61</v>
+        <v>F7</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="11"/>
-        <v>3D</v>
+        <v>D7</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>C4</v>
       </c>
       <c r="E105">
         <f t="shared" si="13"/>
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="F105">
         <f t="shared" si="14"/>
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="G105">
         <f t="shared" si="15"/>
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="H105">
         <f t="shared" si="16"/>
-        <v>206</v>
+        <v>658</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="17"/>
-        <v>dark</v>
+        <v>light</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="18"/>
-        <v>FFFFFF</v>
+        <v>000000</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="19"/>
-        <v>{"background": "#613D30", "foreground": "#FFFFFF"}</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B106" t="str">
-        <f t="shared" si="10"/>
-        <v>F7</v>
-      </c>
-      <c r="C106" t="str">
-        <f t="shared" si="11"/>
-        <v>D7</v>
-      </c>
-      <c r="D106" t="str">
-        <f t="shared" si="12"/>
-        <v>C4</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="13"/>
-        <v>247</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="14"/>
-        <v>215</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="15"/>
-        <v>196</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="16"/>
-        <v>658</v>
-      </c>
-      <c r="I106" t="str">
-        <f t="shared" si="17"/>
-        <v>light</v>
-      </c>
-      <c r="J106" t="str">
-        <f t="shared" si="18"/>
-        <v>000000</v>
-      </c>
-      <c r="K106" t="str">
         <f t="shared" si="19"/>
         <v>{"background": "#F7D7C4", "foreground": "#000000"}</v>
       </c>

--- a/src/assets/colors.xlsx
+++ b/src/assets/colors.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-cowang\Dropbox\Code\vsimages\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653463D4-576F-4085-BA1E-142CF011104C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
     <sheet name="2018 sorted" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,9 +448,6 @@
     <t>#5C2D91</t>
   </si>
   <si>
-    <t>#0078D7</t>
-  </si>
-  <si>
     <t>#008272</t>
   </si>
   <si>
@@ -733,12 +731,15 @@
   </si>
   <si>
     <t>wiki html</t>
+  </si>
+  <si>
+    <t>#0078D4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -756,18 +757,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -777,7 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,14 +789,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5852,11 +5846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135:L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5896,6769 +5890,6769 @@
         <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f>MID(A2,2,2)</f>
         <v>FF</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>MID(A2,4,2)</f>
         <v>F8</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>MID(A2,6,2)</f>
         <v>80</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>HEX2DEC(B2)</f>
         <v>255</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>HEX2DEC(C2)</f>
         <v>248</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>HEX2DEC(D2)</f>
         <v>128</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>SUM(E2:G2)</f>
         <v>631</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(H2&gt;382,"light","dark")</f>
         <v>light</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <f>IF(H2&gt;382,"#000000","#FFFFFF")</f>
         <v>#000000</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="4" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("{'background': '",A2,"', 'foreground': '",J2,"'}"),"'","""")</f>
         <v>{"background": "#FFF880", "foreground": "#000000"}</v>
       </c>
-      <c r="L2" s="5" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("&lt;td style='background-color: ",A2,"; color: ",J2,";'&gt;",A2,"&lt;/td&gt;"),"'","""")</f>
-        <v>&lt;td style="background-color: #FFF880; color: #000000;"&gt;#FFF880&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="L2" s="4" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("&lt;td style='background-color: rgba(",E2,",",F2,",",G2,", 1); color: ",J2,";'&gt;",A2,"&lt;/td&gt;"),"'","""")</f>
+        <v>&lt;td style="background-color: rgba(255,248,128, 1); color: #000000;"&gt;#FFF880&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B66" si="0">MID(A3,2,2)</f>
         <v>FF</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:C66" si="1">MID(A3,4,2)</f>
         <v>A9</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D66" si="2">MID(A3,6,2)</f>
         <v>40</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E66" si="3">HEX2DEC(B3)</f>
         <v>255</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F66" si="4">HEX2DEC(C3)</f>
         <v>169</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G66" si="5">HEX2DEC(D3)</f>
         <v>64</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f t="shared" ref="H3:H66" si="6">SUM(E3:G3)</f>
         <v>488</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I66" si="7">IF(H3&gt;382,"light","dark")</f>
         <v>light</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="4" t="str">
         <f t="shared" ref="J3:J66" si="8">IF(H3&gt;382,"#000000","#FFFFFF")</f>
         <v>#000000</v>
       </c>
-      <c r="K3" s="5" t="str">
+      <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K66" si="9">SUBSTITUTE(_xlfn.CONCAT("{'background': '",A3,"', 'foreground': '",J3,"'}"),"'","""")</f>
         <v>{"background": "#FFA940", "foreground": "#000000"}</v>
       </c>
-      <c r="L3" s="5" t="str">
-        <f t="shared" ref="L3:L66" si="10">SUBSTITUTE(_xlfn.CONCAT("&lt;td style='background-color: ",A3,"; color: ",J3,";'&gt;",A3,"&lt;/td&gt;"),"'","""")</f>
-        <v>&lt;td style="background-color: #FFA940; color: #000000;"&gt;#FFA940&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="L3" s="4" t="str">
+        <f t="shared" ref="L3:L66" si="10">SUBSTITUTE(_xlfn.CONCAT("&lt;td style='background-color: rgba(",E3,",",F3,",",G3,", 1); color: ",J3,";'&gt;",A3,"&lt;/td&gt;"),"'","""")</f>
+        <v>&lt;td style="background-color: rgba(255,169,64, 1); color: #000000;"&gt;#FFA940&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EA</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>A9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f t="shared" si="6"/>
         <v>467</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K4" s="5" t="str">
+      <c r="K4" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#EA40A9", "foreground": "#000000"}</v>
       </c>
-      <c r="L4" s="5" t="str">
+      <c r="L4" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #EA40A9; color: #000000;"&gt;#EA40A9&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(234,64,169, 1); color: #000000;"&gt;#EA40A9&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>C7</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>B8</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FF</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="K5" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#C7B8FF", "foreground": "#000000"}</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="L5" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #C7B8FF; color: #000000;"&gt;#C7B8FF&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(199,184,255, 1); color: #000000;"&gt;#C7B8FF&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>CD</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="4"/>
         <v>205</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="5"/>
         <v>245</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" si="6"/>
         <v>514</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K6" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#40CDF5", "foreground": "#000000"}</v>
       </c>
-      <c r="L6" s="5" t="str">
+      <c r="L6" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #40CDF5; color: #000000;"&gt;#40CDF5&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(64,205,245, 1); color: #000000;"&gt;#40CDF5&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C5</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>AF</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="6"/>
         <v>436</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K7" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#40C5AF", "foreground": "#000000"}</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L7" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #40C5AF; color: #000000;"&gt;#40C5AF&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(64,197,175, 1); color: #000000;"&gt;#40C5AF&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>D7</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>F0</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>4B</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="6"/>
         <v>530</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="K8" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#D7F04B", "foreground": "#000000"}</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #D7F04B; color: #000000;"&gt;#D7F04B&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+        <v>&lt;td style="background-color: rgba(215,240,75, 1); color: #000000;"&gt;#D7F04B&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FF</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>F1</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="4"/>
         <v>241</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="6"/>
         <v>496</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="5" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="J9" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K9" s="6" t="str">
+      <c r="K9" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#FFF100", "foreground": "#000000"}</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #FFF100; color: #000000;"&gt;#FFF100&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+        <v>&lt;td style="background-color: rgba(255,241,0, 1); color: #000000;"&gt;#FFF100&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FF</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>8C</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="6"/>
         <v>395</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J10" s="6" t="str">
+      <c r="J10" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K10" s="6" t="str">
+      <c r="K10" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#FF8C00", "foreground": "#000000"}</v>
       </c>
-      <c r="L10" s="6" t="str">
+      <c r="L10" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #FF8C00; color: #000000;"&gt;#FF8C00&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+        <v>&lt;td style="background-color: rgba(255,140,0, 1); color: #000000;"&gt;#FF8C00&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>E3</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="D11" s="6" t="str">
+      <c r="D11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>8C</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J11" s="6" t="str">
+      <c r="J11" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K11" s="6" t="str">
+      <c r="K11" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#E3008C", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L11" s="6" t="str">
+      <c r="L11" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #E3008C; color: #FFFFFF;"&gt;#E3008C&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+        <v>&lt;td style="background-color: rgba(227,0,140, 1); color: #FFFFFF;"&gt;#E3008C&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>B4</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>A0</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>FF</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="6"/>
         <v>595</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" s="5" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J12" s="6" t="str">
+      <c r="J12" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K12" s="6" t="str">
+      <c r="K12" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#B4A0FF", "foreground": "#000000"}</v>
       </c>
-      <c r="L12" s="6" t="str">
+      <c r="L12" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #B4A0FF; color: #000000;"&gt;#B4A0FF&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+        <v>&lt;td style="background-color: rgba(180,160,255, 1); color: #000000;"&gt;#B4A0FF&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>BC</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>F2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="4"/>
         <v>188</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f t="shared" si="5"/>
         <v>242</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="6"/>
         <v>430</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" s="5" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J13" s="6" t="str">
+      <c r="J13" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K13" s="6" t="str">
+      <c r="K13" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#00BCF2", "foreground": "#000000"}</v>
       </c>
-      <c r="L13" s="6" t="str">
+      <c r="L13" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #00BCF2; color: #000000;"&gt;#00BCF2&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+        <v>&lt;td style="background-color: rgba(0,188,242, 1); color: #000000;"&gt;#00BCF2&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>B2</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="4"/>
         <v>178</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="6"/>
         <v>326</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="J14" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K14" s="6" t="str">
+      <c r="K14" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#00B294", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="L14" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #00B294; color: #FFFFFF;"&gt;#00B294&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+        <v>&lt;td style="background-color: rgba(0,178,148, 1); color: #FFFFFF;"&gt;#00B294&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BA</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>D8</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0A</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="4"/>
         <v>216</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="6"/>
         <v>412</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" s="5" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J15" s="6" t="str">
+      <c r="J15" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K15" s="6" t="str">
+      <c r="K15" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#BAD80A", "foreground": "#000000"}</v>
       </c>
-      <c r="L15" s="6" t="str">
+      <c r="L15" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #BAD80A; color: #000000;"&gt;#BAD80A&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(186,216,10, 1); color: #000000;"&gt;#BAD80A&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>F0</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>E3</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f t="shared" si="4"/>
         <v>227</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f t="shared" si="6"/>
         <v>467</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="J16" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K16" s="5" t="str">
+      <c r="K16" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#F0E300", "foreground": "#000000"}</v>
       </c>
-      <c r="L16" s="5" t="str">
+      <c r="L16" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #F0E300; color: #000000;"&gt;#F0E300&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(240,227,0, 1); color: #000000;"&gt;#F0E300&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>F0</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f t="shared" si="6"/>
         <v>372</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J17" s="5" t="str">
+      <c r="J17" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K17" s="5" t="str">
+      <c r="K17" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#F08400", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L17" s="5" t="str">
+      <c r="L17" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #F08400; color: #FFFFFF;"&gt;#F08400&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(240,132,0, 1); color: #FFFFFF;"&gt;#F08400&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>D4</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f t="shared" si="5"/>
         <v>131</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <f t="shared" si="6"/>
         <v>343</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="J18" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K18" s="5" t="str">
+      <c r="K18" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#D40083", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L18" s="5" t="str">
+      <c r="L18" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #D40083; color: #FFFFFF;"&gt;#D40083&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(212,0,131, 1); color: #FFFFFF;"&gt;#D40083&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8A</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C7</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f t="shared" si="5"/>
         <v>199</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <f t="shared" si="6"/>
         <v>458</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J19" s="5" t="str">
+      <c r="J19" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K19" s="5" t="str">
+      <c r="K19" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#8A79C7", "foreground": "#000000"}</v>
       </c>
-      <c r="L19" s="5" t="str">
+      <c r="L19" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #8A79C7; color: #000000;"&gt;#8A79C7&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(138,121,199, 1); color: #000000;"&gt;#8A79C7&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <f t="shared" si="5"/>
         <v>194</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <f t="shared" si="6"/>
         <v>344</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J20" s="5" t="str">
+      <c r="J20" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K20" s="5" t="str">
+      <c r="K20" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#0096C2", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L20" s="5" t="str">
+      <c r="L20" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #0096C2; color: #FFFFFF;"&gt;#0096C2&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(0,150,194, 1); color: #FFFFFF;"&gt;#0096C2&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>8C</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <f t="shared" si="6"/>
         <v>256</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="J21" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K21" s="5" t="str">
+      <c r="K21" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#008C74", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L21" s="5" t="str">
+      <c r="L21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #008C74; color: #FFFFFF;"&gt;#008C74&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(0,140,116, 1); color: #FFFFFF;"&gt;#008C74&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>9A</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>B2</v>
       </c>
-      <c r="D22" s="5" t="str">
+      <c r="D22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>08</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f t="shared" si="4"/>
         <v>178</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <f t="shared" si="6"/>
         <v>340</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J22" s="5" t="str">
+      <c r="J22" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K22" s="5" t="str">
+      <c r="K22" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#9AB208", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L22" s="5" t="str">
+      <c r="L22" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #9AB208; color: #FFFFFF;"&gt;#9AB208&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(154,178,8, 1); color: #FFFFFF;"&gt;#9AB208&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>CC</v>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="C23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>C0</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <f t="shared" si="4"/>
         <v>192</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="I23" s="4" t="str">
+      <c r="I23" s="5" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J23" s="4" t="str">
+      <c r="J23" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K23" s="4" t="str">
+      <c r="K23" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#CCC000", "foreground": "#000000"}</v>
       </c>
-      <c r="L23" s="4" t="str">
+      <c r="L23" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #CCC000; color: #000000;"&gt;#CCC000&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(204,192,0, 1); color: #000000;"&gt;#CCC000&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BA</v>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="C24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <f t="shared" si="6"/>
         <v>290</v>
       </c>
-      <c r="I24" s="4" t="str">
+      <c r="I24" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J24" s="4" t="str">
+      <c r="J24" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="K24" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#BA6800", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L24" s="4" t="str">
+      <c r="L24" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #BA6800; color: #FFFFFF;"&gt;#BA6800&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(186,104,0, 1); color: #FFFFFF;"&gt;#BA6800&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>9C</v>
       </c>
-      <c r="C25" s="4" t="str">
+      <c r="C25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="5" t="str">
         <f t="shared" si="2"/>
         <v>5F</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <f t="shared" si="6"/>
         <v>251</v>
       </c>
-      <c r="I25" s="4" t="str">
+      <c r="I25" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J25" s="4" t="str">
+      <c r="J25" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K25" s="4" t="str">
+      <c r="K25" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#9C005F", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L25" s="4" t="str">
+      <c r="L25" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #9C005F; color: #FFFFFF;"&gt;#9C005F&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(156,0,95, 1); color: #FFFFFF;"&gt;#9C005F&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C26" s="4" t="str">
+      <c r="C26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="5" t="str">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <f t="shared" si="6"/>
         <v>332</v>
       </c>
-      <c r="I26" s="4" t="str">
+      <c r="I26" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J26" s="4" t="str">
+      <c r="J26" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="K26" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#625496", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L26" s="4" t="str">
+      <c r="L26" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #625496; color: #FFFFFF;"&gt;#625496&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(98,84,150, 1); color: #FFFFFF;"&gt;#625496&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C27" s="4" t="str">
+      <c r="C27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="5" t="str">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <f t="shared" si="6"/>
         <v>267</v>
       </c>
-      <c r="I27" s="4" t="str">
+      <c r="I27" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J27" s="4" t="str">
+      <c r="J27" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="K27" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#007596", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L27" s="4" t="str">
+      <c r="L27" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #007596; color: #FFFFFF;"&gt;#007596&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(0,117,150, 1); color: #FFFFFF;"&gt;#007596&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>6E</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="5" t="str">
         <f t="shared" si="2"/>
         <v>5B</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <f t="shared" si="6"/>
         <v>201</v>
       </c>
-      <c r="I28" s="4" t="str">
+      <c r="I28" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J28" s="4" t="str">
+      <c r="J28" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K28" s="4" t="str">
+      <c r="K28" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#006E5B", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L28" s="4" t="str">
+      <c r="L28" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #006E5B; color: #FFFFFF;"&gt;#006E5B&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(0,110,91, 1); color: #FFFFFF;"&gt;#006E5B&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="C29" s="4" t="str">
+      <c r="C29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>8C</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>08</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <f t="shared" si="6"/>
         <v>269</v>
       </c>
-      <c r="I29" s="4" t="str">
+      <c r="I29" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J29" s="4" t="str">
+      <c r="J29" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K29" s="4" t="str">
+      <c r="K29" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#798C08", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L29" s="4" t="str">
+      <c r="L29" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #798C08; color: #FFFFFF;"&gt;#798C08&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(121,140,8, 1); color: #FFFFFF;"&gt;#798C08&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FF</v>
       </c>
-      <c r="C30" s="5" t="str">
+      <c r="C30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>CB</v>
       </c>
-      <c r="D30" s="5" t="str">
+      <c r="D30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <f t="shared" si="4"/>
         <v>203</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <f t="shared" si="6"/>
         <v>522</v>
       </c>
-      <c r="I30" s="5" t="str">
+      <c r="I30" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J30" s="5" t="str">
+      <c r="J30" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K30" s="5" t="str">
+      <c r="K30" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#FFCB40", "foreground": "#000000"}</v>
       </c>
-      <c r="L30" s="5" t="str">
+      <c r="L30" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #FFCB40; color: #000000;"&gt;#FFCB40&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(255,203,64, 1); color: #000000;"&gt;#FFCB40&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>E2</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>6C</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
-      <c r="I31" s="5" t="str">
+      <c r="I31" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J31" s="5" t="str">
+      <c r="J31" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K31" s="5" t="str">
+      <c r="K31" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#E26C41", "foreground": "#000000"}</v>
       </c>
-      <c r="L31" s="5" t="str">
+      <c r="L31" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #E26C41; color: #000000;"&gt;#E26C41&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(226,108,65, 1); color: #000000;"&gt;#E26C41&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EE</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>4D</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>5A</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="6"/>
         <v>405</v>
       </c>
-      <c r="I32" s="5" t="str">
+      <c r="I32" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J32" s="5" t="str">
+      <c r="J32" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K32" s="5" t="str">
+      <c r="K32" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#EE4D5A", "foreground": "#000000"}</v>
       </c>
-      <c r="L32" s="5" t="str">
+      <c r="L32" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #EE4D5A; color: #000000;"&gt;#EE4D5A&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(238,77,90, 1); color: #000000;"&gt;#EE4D5A&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>C7</v>
       </c>
-      <c r="C33" s="5" t="str">
+      <c r="C33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>B6</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <f t="shared" si="6"/>
         <v>445</v>
       </c>
-      <c r="I33" s="5" t="str">
+      <c r="I33" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J33" s="5" t="str">
+      <c r="J33" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K33" s="5" t="str">
+      <c r="K33" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#C740B6", "foreground": "#000000"}</v>
       </c>
-      <c r="L33" s="5" t="str">
+      <c r="L33" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #C740B6; color: #000000;"&gt;#C740B6&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(199,64,182, 1); color: #000000;"&gt;#C740B6&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="5" t="str">
+      <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>A5</v>
       </c>
-      <c r="C34" s="5" t="str">
+      <c r="C34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>D6</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="I34" s="5" t="str">
+      <c r="I34" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J34" s="5" t="str">
+      <c r="J34" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K34" s="5" t="str">
+      <c r="K34" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#A579D6", "foreground": "#000000"}</v>
       </c>
-      <c r="L34" s="5" t="str">
+      <c r="L34" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #A579D6; color: #000000;"&gt;#A579D6&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(165,121,214, 1); color: #000000;"&gt;#A579D6&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="5" t="str">
+      <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>9A</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D35" s="4" t="str">
         <f t="shared" si="2"/>
         <v>E1</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <f t="shared" si="6"/>
         <v>443</v>
       </c>
-      <c r="I35" s="5" t="str">
+      <c r="I35" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J35" s="5" t="str">
+      <c r="J35" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K35" s="5" t="str">
+      <c r="K35" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#409AE1", "foreground": "#000000"}</v>
       </c>
-      <c r="L35" s="5" t="str">
+      <c r="L35" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #409AE1; color: #000000;"&gt;#409AE1&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(64,154,225, 1); color: #000000;"&gt;#409AE1&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="5" t="str">
+      <c r="B36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C36" s="5" t="str">
+      <c r="C36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>A1</v>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <f t="shared" si="6"/>
         <v>374</v>
       </c>
-      <c r="I36" s="5" t="str">
+      <c r="I36" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J36" s="5" t="str">
+      <c r="J36" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K36" s="5" t="str">
+      <c r="K36" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#40A195", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L36" s="5" t="str">
+      <c r="L36" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #40A195; color: #FFFFFF;"&gt;#40A195&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+        <v>&lt;td style="background-color: rgba(64,161,149, 1); color: #FFFFFF;"&gt;#40A195&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="5" t="str">
+      <c r="B37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C5</v>
       </c>
-      <c r="D37" s="5" t="str">
+      <c r="D37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <f t="shared" si="6"/>
         <v>437</v>
       </c>
-      <c r="I37" s="5" t="str">
+      <c r="I37" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J37" s="5" t="str">
+      <c r="J37" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K37" s="5" t="str">
+      <c r="K37" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#78C578", "foreground": "#000000"}</v>
       </c>
-      <c r="L37" s="5" t="str">
+      <c r="L37" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #78C578; color: #000000;"&gt;#78C578&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(120,197,120, 1); color: #000000;"&gt;#78C578&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FF</v>
       </c>
-      <c r="C38" s="4" t="str">
+      <c r="C38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>B9</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="5">
         <f t="shared" si="6"/>
         <v>440</v>
       </c>
-      <c r="I38" s="4" t="str">
+      <c r="I38" s="5" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J38" s="4" t="str">
+      <c r="J38" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K38" s="4" t="str">
+      <c r="K38" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#FFB900", "foreground": "#000000"}</v>
       </c>
-      <c r="L38" s="4" t="str">
+      <c r="L38" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #FFB900; color: #000000;"&gt;#FFB900&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(255,185,0, 1); color: #000000;"&gt;#FFB900&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="4" t="str">
+      <c r="B39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>D8</v>
       </c>
-      <c r="C39" s="4" t="str">
+      <c r="C39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>3B</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="5" t="str">
         <f t="shared" si="2"/>
         <v>01</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="5">
         <f t="shared" si="6"/>
         <v>276</v>
       </c>
-      <c r="I39" s="4" t="str">
+      <c r="I39" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J39" s="4" t="str">
+      <c r="J39" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K39" s="4" t="str">
+      <c r="K39" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#D83B01", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L39" s="4" t="str">
+      <c r="L39" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #D83B01; color: #FFFFFF;"&gt;#D83B01&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(216,59,1, 1); color: #FFFFFF;"&gt;#D83B01&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="4" t="str">
+      <c r="B40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>E8</v>
       </c>
-      <c r="C40" s="4" t="str">
+      <c r="C40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="5" t="str">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="5">
         <f t="shared" si="6"/>
         <v>284</v>
       </c>
-      <c r="I40" s="4" t="str">
+      <c r="I40" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J40" s="4" t="str">
+      <c r="J40" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K40" s="4" t="str">
+      <c r="K40" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#E81123", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L40" s="4" t="str">
+      <c r="L40" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #E81123; color: #FFFFFF;"&gt;#E81123&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(232,17,35, 1); color: #FFFFFF;"&gt;#E81123&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="4" t="str">
+      <c r="B41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>B4</v>
       </c>
-      <c r="C41" s="4" t="str">
+      <c r="C41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="5" t="str">
         <f t="shared" si="2"/>
         <v>9E</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="5">
         <f t="shared" si="6"/>
         <v>338</v>
       </c>
-      <c r="I41" s="4" t="str">
+      <c r="I41" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J41" s="4" t="str">
+      <c r="J41" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K41" s="4" t="str">
+      <c r="K41" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#B4009E", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L41" s="4" t="str">
+      <c r="L41" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #B4009E; color: #FFFFFF;"&gt;#B4009E&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(180,0,158, 1); color: #FFFFFF;"&gt;#B4009E&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>5C</v>
       </c>
-      <c r="C42" s="4" t="str">
+      <c r="C42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="5" t="str">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="5">
         <f t="shared" si="6"/>
         <v>282</v>
       </c>
-      <c r="I42" s="4" t="str">
+      <c r="I42" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J42" s="4" t="str">
+      <c r="J42" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K42" s="4" t="str">
+      <c r="K42" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#5C2D91", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L42" s="4" t="str">
+      <c r="L42" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #5C2D91; color: #FFFFFF;"&gt;#5C2D91&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(92,45,145, 1); color: #FFFFFF;"&gt;#5C2D91&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C43" s="4" t="str">
+      <c r="C43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>D7</v>
-      </c>
-      <c r="E43" s="4">
+        <v>D4</v>
+      </c>
+      <c r="E43" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <f t="shared" si="5"/>
-        <v>215</v>
-      </c>
-      <c r="H43" s="4">
+        <v>212</v>
+      </c>
+      <c r="H43" s="5">
         <f t="shared" si="6"/>
-        <v>335</v>
-      </c>
-      <c r="I43" s="4" t="str">
+        <v>332</v>
+      </c>
+      <c r="I43" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J43" s="4" t="str">
+      <c r="J43" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K43" s="4" t="str">
+      <c r="K43" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>{"background": "#0078D7", "foreground": "#FFFFFF"}</v>
-      </c>
-      <c r="L43" s="4" t="str">
+        <v>{"background": "#0078D4", "foreground": "#FFFFFF"}</v>
+      </c>
+      <c r="L43" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #0078D7; color: #FFFFFF;"&gt;#0078D7&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(0,120,212, 1); color: #FFFFFF;"&gt;#0078D4&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C44" s="4" t="str">
+      <c r="C44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="5" t="str">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="5">
         <f t="shared" si="6"/>
         <v>244</v>
       </c>
-      <c r="I44" s="4" t="str">
+      <c r="I44" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J44" s="4" t="str">
+      <c r="J44" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K44" s="4" t="str">
+      <c r="K44" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#008272", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L44" s="4" t="str">
+      <c r="L44" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #008272; color: #FFFFFF;"&gt;#008272&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(0,130,114, 1); color: #FFFFFF;"&gt;#008272&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C45" s="4" t="str">
+      <c r="C45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>7C</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="5" t="str">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="5">
         <f t="shared" si="6"/>
         <v>156</v>
       </c>
-      <c r="I45" s="4" t="str">
+      <c r="I45" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J45" s="4" t="str">
+      <c r="J45" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K45" s="4" t="str">
+      <c r="K45" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#107C10", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L45" s="4" t="str">
+      <c r="L45" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #107C10; color: #FFFFFF;"&gt;#107C10&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(16,124,16, 1); color: #FFFFFF;"&gt;#107C10&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>E5</v>
       </c>
-      <c r="C46" s="5" t="str">
+      <c r="C46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>A6</v>
       </c>
-      <c r="D46" s="5" t="str">
+      <c r="D46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <f t="shared" si="4"/>
         <v>166</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <f t="shared" si="6"/>
         <v>395</v>
       </c>
-      <c r="I46" s="5" t="str">
+      <c r="I46" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J46" s="5" t="str">
+      <c r="J46" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K46" s="5" t="str">
+      <c r="K46" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#E5A600", "foreground": "#000000"}</v>
       </c>
-      <c r="L46" s="5" t="str">
+      <c r="L46" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #E5A600; color: #000000;"&gt;#E5A600&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(229,166,0, 1); color: #000000;"&gt;#E5A600&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BD</v>
       </c>
-      <c r="C47" s="5" t="str">
+      <c r="C47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D47" s="5" t="str">
+      <c r="D47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>04</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <f t="shared" si="6"/>
         <v>247</v>
       </c>
-      <c r="I47" s="5" t="str">
+      <c r="I47" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J47" s="5" t="str">
+      <c r="J47" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K47" s="5" t="str">
+      <c r="K47" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#BD3604", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L47" s="5" t="str">
+      <c r="L47" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #BD3604; color: #FFFFFF;"&gt;#BD3604&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(189,54,4, 1); color: #FFFFFF;"&gt;#BD3604&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BA</v>
       </c>
-      <c r="C48" s="5" t="str">
+      <c r="C48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>0E</v>
       </c>
-      <c r="D48" s="5" t="str">
+      <c r="D48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1C</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <f t="shared" si="6"/>
         <v>228</v>
       </c>
-      <c r="I48" s="5" t="str">
+      <c r="I48" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J48" s="5" t="str">
+      <c r="J48" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K48" s="5" t="str">
+      <c r="K48" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#BA0E1C", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L48" s="5" t="str">
+      <c r="L48" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #BA0E1C; color: #FFFFFF;"&gt;#BA0E1C&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(186,14,28, 1); color: #FFFFFF;"&gt;#BA0E1C&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>9E</v>
       </c>
-      <c r="C49" s="5" t="str">
+      <c r="C49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="D49" s="5" t="str">
+      <c r="D49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>8B</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <f t="shared" si="6"/>
         <v>297</v>
       </c>
-      <c r="I49" s="5" t="str">
+      <c r="I49" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J49" s="5" t="str">
+      <c r="J49" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K49" s="5" t="str">
+      <c r="K49" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#9E008B", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L49" s="5" t="str">
+      <c r="L49" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #9E008B; color: #FFFFFF;"&gt;#9E008B&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(158,0,139, 1); color: #FFFFFF;"&gt;#9E008B&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="C50" s="5" t="str">
+      <c r="C50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>4C</v>
       </c>
-      <c r="D50" s="5" t="str">
+      <c r="D50" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C7</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <f t="shared" si="5"/>
         <v>199</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="4">
         <f t="shared" si="6"/>
         <v>408</v>
       </c>
-      <c r="I50" s="5" t="str">
+      <c r="I50" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J50" s="5" t="str">
+      <c r="J50" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K50" s="5" t="str">
+      <c r="K50" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#854CC7", "foreground": "#000000"}</v>
       </c>
-      <c r="L50" s="5" t="str">
+      <c r="L50" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #854CC7; color: #000000;"&gt;#854CC7&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(133,76,199, 1); color: #000000;"&gt;#854CC7&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C51" s="5" t="str">
+      <c r="C51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="D51" s="5" t="str">
+      <c r="D51" s="4" t="str">
         <f t="shared" si="2"/>
         <v>B5</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <f t="shared" si="5"/>
         <v>181</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="4">
         <f t="shared" si="6"/>
         <v>281</v>
       </c>
-      <c r="I51" s="5" t="str">
+      <c r="I51" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J51" s="5" t="str">
+      <c r="J51" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K51" s="5" t="str">
+      <c r="K51" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#0064B5", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L51" s="5" t="str">
+      <c r="L51" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #0064B5; color: #FFFFFF;"&gt;#0064B5&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(0,100,181, 1); color: #FFFFFF;"&gt;#0064B5&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C52" s="5" t="str">
+      <c r="C52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D52" s="5" t="str">
+      <c r="D52" s="4" t="str">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="I52" s="5" t="str">
+      <c r="I52" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J52" s="5" t="str">
+      <c r="J52" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K52" s="5" t="str">
+      <c r="K52" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#005248", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L52" s="5" t="str">
+      <c r="L52" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #005248; color: #FFFFFF;"&gt;#005248&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(0,82,72, 1); color: #FFFFFF;"&gt;#005248&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C53" s="5" t="str">
+      <c r="C53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>A1</v>
       </c>
-      <c r="D53" s="5" t="str">
+      <c r="D53" s="4" t="str">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <f t="shared" si="6"/>
         <v>273</v>
       </c>
-      <c r="I53" s="5" t="str">
+      <c r="I53" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J53" s="5" t="str">
+      <c r="J53" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K53" s="5" t="str">
+      <c r="K53" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#38A138", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L53" s="5" t="str">
+      <c r="L53" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #38A138; color: #FFFFFF;"&gt;#38A138&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(56,161,56, 1); color: #FFFFFF;"&gt;#38A138&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>C4</v>
       </c>
-      <c r="C54" s="4" t="str">
+      <c r="C54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>8C</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="5" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="5">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="5">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="5">
         <f t="shared" si="6"/>
         <v>336</v>
       </c>
-      <c r="I54" s="4" t="str">
+      <c r="I54" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J54" s="4" t="str">
+      <c r="J54" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K54" s="4" t="str">
+      <c r="K54" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#C48C00", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L54" s="4" t="str">
+      <c r="L54" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #C48C00; color: #FFFFFF;"&gt;#C48C00&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(196,140,0, 1); color: #FFFFFF;"&gt;#C48C00&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>9C</v>
       </c>
-      <c r="C55" s="4" t="str">
+      <c r="C55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="5" t="str">
         <f t="shared" si="2"/>
         <v>01</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="5">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="5">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="5">
         <f t="shared" si="6"/>
         <v>197</v>
       </c>
-      <c r="I55" s="4" t="str">
+      <c r="I55" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J55" s="4" t="str">
+      <c r="J55" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K55" s="4" t="str">
+      <c r="K55" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#9C2801", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L55" s="4" t="str">
+      <c r="L55" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #9C2801; color: #FFFFFF;"&gt;#9C2801&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(156,40,1, 1); color: #FFFFFF;"&gt;#9C2801&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="C56" s="4" t="str">
+      <c r="C56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0F</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1B</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="5">
         <f t="shared" si="6"/>
         <v>187</v>
       </c>
-      <c r="I56" s="4" t="str">
+      <c r="I56" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J56" s="4" t="str">
+      <c r="J56" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K56" s="4" t="str">
+      <c r="K56" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#910F1B", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L56" s="4" t="str">
+      <c r="L56" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #910F1B; color: #FFFFFF;"&gt;#910F1B&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(145,15,27, 1); color: #FFFFFF;"&gt;#910F1B&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="C57" s="4" t="str">
+      <c r="C57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="5" t="str">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="5">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="5">
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
-      <c r="I57" s="4" t="str">
+      <c r="I57" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J57" s="4" t="str">
+      <c r="J57" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K57" s="4" t="str">
+      <c r="K57" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#850063", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L57" s="4" t="str">
+      <c r="L57" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #850063; color: #FFFFFF;"&gt;#850063&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(133,0,99, 1); color: #FFFFFF;"&gt;#850063&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C58" s="4" t="str">
+      <c r="C58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="5" t="str">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="5">
         <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="5">
         <f t="shared" si="6"/>
         <v>187</v>
       </c>
-      <c r="I58" s="4" t="str">
+      <c r="I58" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J58" s="4" t="str">
+      <c r="J58" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K58" s="4" t="str">
+      <c r="K58" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#401467", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L58" s="4" t="str">
+      <c r="L58" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #401467; color: #FFFFFF;"&gt;#401467&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(64,20,103, 1); color: #FFFFFF;"&gt;#401467&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C59" s="4" t="str">
+      <c r="C59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="5" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="5">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="5">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="5">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="I59" s="4" t="str">
+      <c r="I59" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J59" s="4" t="str">
+      <c r="J59" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K59" s="4" t="str">
+      <c r="K59" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#004880", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L59" s="4" t="str">
+      <c r="L59" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #004880; color: #FFFFFF;"&gt;#004880&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(0,72,128, 1); color: #FFFFFF;"&gt;#004880&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="C60" s="4" t="str">
+      <c r="C60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="5" t="str">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="5">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="5">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="5">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="I60" s="4" t="str">
+      <c r="I60" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J60" s="4" t="str">
+      <c r="J60" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K60" s="4" t="str">
+      <c r="K60" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#003631", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L60" s="4" t="str">
+      <c r="L60" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #003631; color: #FFFFFF;"&gt;#003631&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(0,54,49, 1); color: #FFFFFF;"&gt;#003631&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0D</v>
       </c>
-      <c r="C61" s="4" t="str">
+      <c r="C61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0D</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="5">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="5">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="5">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="5">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="I61" s="4" t="str">
+      <c r="I61" s="5" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J61" s="4" t="str">
+      <c r="J61" s="5" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K61" s="4" t="str">
+      <c r="K61" s="5" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#0D520D", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L61" s="4" t="str">
+      <c r="L61" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #0D520D; color: #FFFFFF;"&gt;#0D520D&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(13,82,13, 1); color: #FFFFFF;"&gt;#0D520D&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>C4</v>
       </c>
-      <c r="C62" s="5" t="str">
+      <c r="C62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D62" s="5" t="str">
+      <c r="D62" s="4" t="str">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="4">
         <f t="shared" si="6"/>
         <v>302</v>
       </c>
-      <c r="I62" s="5" t="str">
+      <c r="I62" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J62" s="5" t="str">
+      <c r="J62" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K62" s="5" t="str">
+      <c r="K62" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#C43535", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L62" s="5" t="str">
+      <c r="L62" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #C43535; color: #FFFFFF;"&gt;#C43535&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B63" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(196,53,53, 1); color: #FFFFFF;"&gt;#C43535&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>A6</v>
       </c>
-      <c r="C63" s="5" t="str">
+      <c r="C63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D63" s="5" t="str">
+      <c r="D63" s="4" t="str">
         <f t="shared" si="2"/>
         <v>A6</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="4">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="4">
         <f t="shared" si="6"/>
         <v>412</v>
       </c>
-      <c r="I63" s="5" t="str">
+      <c r="I63" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J63" s="5" t="str">
+      <c r="J63" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K63" s="5" t="str">
+      <c r="K63" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#A650A6", "foreground": "#000000"}</v>
       </c>
-      <c r="L63" s="5" t="str">
+      <c r="L63" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #A650A6; color: #000000;"&gt;#A650A6&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(166,80,166, 1); color: #000000;"&gt;#A650A6&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C64" s="5" t="str">
+      <c r="C64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="D64" s="5" t="str">
+      <c r="D64" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C9</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <f t="shared" si="5"/>
         <v>201</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <f t="shared" si="6"/>
         <v>423</v>
       </c>
-      <c r="I64" s="5" t="str">
+      <c r="I64" s="4" t="str">
         <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="J64" s="5" t="str">
+      <c r="J64" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#000000</v>
       </c>
-      <c r="K64" s="5" t="str">
+      <c r="K64" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#8757C9", "foreground": "#000000"}</v>
       </c>
-      <c r="L64" s="5" t="str">
+      <c r="L64" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #8757C9; color: #000000;"&gt;#8757C9&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(135,87,201, 1); color: #000000;"&gt;#8757C9&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2F</v>
       </c>
-      <c r="C65" s="5" t="str">
+      <c r="C65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D65" s="5" t="str">
+      <c r="D65" s="4" t="str">
         <f t="shared" si="2"/>
         <v>E0</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <f t="shared" si="5"/>
         <v>224</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="I65" s="5" t="str">
+      <c r="I65" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J65" s="5" t="str">
+      <c r="J65" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K65" s="5" t="str">
+      <c r="K65" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#2F60E0", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L65" s="5" t="str">
+      <c r="L65" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #2F60E0; color: #FFFFFF;"&gt;#2F60E0&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(47,96,224, 1); color: #FFFFFF;"&gt;#2F60E0&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C66" s="5" t="str">
+      <c r="C66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="D66" s="5" t="str">
+      <c r="D66" s="4" t="str">
         <f t="shared" si="2"/>
         <v>A3</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="4">
         <f t="shared" si="6"/>
         <v>319</v>
       </c>
-      <c r="I66" s="5" t="str">
+      <c r="I66" s="4" t="str">
         <f t="shared" si="7"/>
         <v>dark</v>
       </c>
-      <c r="J66" s="5" t="str">
+      <c r="J66" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K66" s="5" t="str">
+      <c r="K66" s="4" t="str">
         <f t="shared" si="9"/>
         <v>{"background": "#3963A3", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L66" s="5" t="str">
+      <c r="L66" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;td style="background-color: #3963A3; color: #FFFFFF;"&gt;#3963A3&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(57,99,163, 1); color: #FFFFFF;"&gt;#3963A3&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="4" t="str">
         <f t="shared" ref="B67:B125" si="11">MID(A67,2,2)</f>
         <v>4B</v>
       </c>
-      <c r="C67" s="5" t="str">
+      <c r="C67" s="4" t="str">
         <f t="shared" ref="C67:C125" si="12">MID(A67,4,2)</f>
         <v>8D</v>
       </c>
-      <c r="D67" s="5" t="str">
+      <c r="D67" s="4" t="str">
         <f t="shared" ref="D67:D125" si="13">MID(A67,6,2)</f>
         <v>91</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <f t="shared" ref="E67:E125" si="14">HEX2DEC(B67)</f>
         <v>75</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <f t="shared" ref="F67:F125" si="15">HEX2DEC(C67)</f>
         <v>141</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <f t="shared" ref="G67:G125" si="16">HEX2DEC(D67)</f>
         <v>145</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <f t="shared" ref="H67:H125" si="17">SUM(E67:G67)</f>
         <v>361</v>
       </c>
-      <c r="I67" s="5" t="str">
+      <c r="I67" s="4" t="str">
         <f t="shared" ref="I67:I125" si="18">IF(H67&gt;382,"light","dark")</f>
         <v>dark</v>
       </c>
-      <c r="J67" s="5" t="str">
+      <c r="J67" s="4" t="str">
         <f t="shared" ref="J67:J125" si="19">IF(H67&gt;382,"#000000","#FFFFFF")</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="K67" s="5" t="str">
+      <c r="K67" s="4" t="str">
         <f t="shared" ref="K67:K130" si="20">SUBSTITUTE(_xlfn.CONCAT("{'background': '",A67,"', 'foreground': '",J67,"'}"),"'","""")</f>
         <v>{"background": "#4B8D91", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L67" s="5" t="str">
-        <f t="shared" ref="L67:L130" si="21">SUBSTITUTE(_xlfn.CONCAT("&lt;td style='background-color: ",A67,"; color: ",J67,";'&gt;",A67,"&lt;/td&gt;"),"'","""")</f>
-        <v>&lt;td style="background-color: #4B8D91; color: #FFFFFF;"&gt;#4B8D91&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="5" t="str">
+      <c r="L67" s="4" t="str">
+        <f t="shared" ref="L67:L130" si="21">SUBSTITUTE(_xlfn.CONCAT("&lt;td style='background-color: rgba(",E67,",",F67,",",G67,", 1); color: ",J67,";'&gt;",A67,"&lt;/td&gt;"),"'","""")</f>
+        <v>&lt;td style="background-color: rgba(75,141,145, 1); color: #FFFFFF;"&gt;#4B8D91&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="4" t="str">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="C68" s="5" t="str">
+      <c r="C68" s="4" t="str">
         <f t="shared" si="12"/>
         <v>99</v>
       </c>
-      <c r="D68" s="5" t="str">
+      <c r="D68" s="4" t="str">
         <f t="shared" si="13"/>
         <v>4E</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <f t="shared" si="15"/>
         <v>153</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="4">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <f t="shared" si="17"/>
         <v>265</v>
       </c>
-      <c r="I68" s="5" t="str">
+      <c r="I68" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J68" s="5" t="str">
+      <c r="J68" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K68" s="5" t="str">
+      <c r="K68" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#22994E", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L68" s="5" t="str">
+      <c r="L68" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #22994E; color: #FFFFFF;"&gt;#22994E&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(34,153,78, 1); color: #FFFFFF;"&gt;#22994E&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="5" t="str">
         <f t="shared" si="11"/>
         <v>87</v>
       </c>
-      <c r="C69" s="4" t="str">
+      <c r="C69" s="5" t="str">
         <f t="shared" si="12"/>
         <v>1A</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="5" t="str">
         <f t="shared" si="13"/>
         <v>1A</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="5">
         <f t="shared" si="14"/>
         <v>135</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="5">
         <f t="shared" si="15"/>
         <v>26</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <f t="shared" si="16"/>
         <v>26</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="5">
         <f t="shared" si="17"/>
         <v>187</v>
       </c>
-      <c r="I69" s="4" t="str">
+      <c r="I69" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J69" s="4" t="str">
+      <c r="J69" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K69" s="4" t="str">
+      <c r="K69" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#871A1A", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L69" s="4" t="str">
+      <c r="L69" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #871A1A; color: #FFFFFF;"&gt;#871A1A&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(135,26,26, 1); color: #FFFFFF;"&gt;#871A1A&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="5" t="str">
         <f t="shared" si="11"/>
         <v>7E</v>
       </c>
-      <c r="C70" s="4" t="str">
+      <c r="C70" s="5" t="str">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="5" t="str">
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
         <f t="shared" si="14"/>
         <v>126</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="5">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="5">
         <f t="shared" si="16"/>
         <v>133</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="5">
         <f t="shared" si="17"/>
         <v>297</v>
       </c>
-      <c r="I70" s="4" t="str">
+      <c r="I70" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J70" s="4" t="str">
+      <c r="J70" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K70" s="4" t="str">
+      <c r="K70" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#7E2685", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L70" s="4" t="str">
+      <c r="L70" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #7E2685; color: #FFFFFF;"&gt;#7E2685&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(126,38,133, 1); color: #FFFFFF;"&gt;#7E2685&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="5" t="str">
         <f t="shared" si="11"/>
         <v>57</v>
       </c>
-      <c r="C71" s="4" t="str">
+      <c r="C71" s="5" t="str">
         <f t="shared" si="12"/>
         <v>38</v>
       </c>
-      <c r="D71" s="4" t="str">
+      <c r="D71" s="5" t="str">
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="5">
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="5">
         <f t="shared" si="15"/>
         <v>56</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="5">
         <f t="shared" si="17"/>
         <v>291</v>
       </c>
-      <c r="I71" s="4" t="str">
+      <c r="I71" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J71" s="4" t="str">
+      <c r="J71" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K71" s="4" t="str">
+      <c r="K71" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#573894", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L71" s="4" t="str">
+      <c r="L71" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #573894; color: #FFFFFF;"&gt;#573894&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(87,56,148, 1); color: #FFFFFF;"&gt;#573894&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="5" t="str">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="C72" s="4" t="str">
+      <c r="C72" s="5" t="str">
         <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="D72" s="5" t="str">
         <f t="shared" si="13"/>
         <v>B5</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="5">
         <f t="shared" si="14"/>
         <v>33</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="5">
         <f t="shared" si="15"/>
         <v>57</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="5">
         <f t="shared" si="16"/>
         <v>181</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="5">
         <f t="shared" si="17"/>
         <v>271</v>
       </c>
-      <c r="I72" s="4" t="str">
+      <c r="I72" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J72" s="4" t="str">
+      <c r="J72" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K72" s="4" t="str">
+      <c r="K72" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#2139B5", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L72" s="4" t="str">
+      <c r="L72" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #2139B5; color: #FFFFFF;"&gt;#2139B5&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(33,57,181, 1); color: #FFFFFF;"&gt;#2139B5&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="5" t="str">
         <f t="shared" si="11"/>
         <v>2D</v>
       </c>
-      <c r="C73" s="4" t="str">
+      <c r="C73" s="5" t="str">
         <f t="shared" si="12"/>
         <v>3D</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="5" t="str">
         <f t="shared" si="13"/>
         <v>87</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="5">
         <f t="shared" si="14"/>
         <v>45</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="5">
         <f t="shared" si="15"/>
         <v>61</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="5">
         <f t="shared" si="16"/>
         <v>135</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="5">
         <f t="shared" si="17"/>
         <v>241</v>
       </c>
-      <c r="I73" s="4" t="str">
+      <c r="I73" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J73" s="4" t="str">
+      <c r="J73" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K73" s="4" t="str">
+      <c r="K73" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#2D3D87", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L73" s="4" t="str">
+      <c r="L73" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #2D3D87; color: #FFFFFF;"&gt;#2D3D87&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(45,61,135, 1); color: #FFFFFF;"&gt;#2D3D87&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="5" t="str">
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="C74" s="4" t="str">
+      <c r="C74" s="5" t="str">
         <f t="shared" si="12"/>
         <v>6B</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="5" t="str">
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="5">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="5">
         <f t="shared" si="15"/>
         <v>107</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="5">
         <f t="shared" si="16"/>
         <v>112</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="5">
         <f t="shared" si="17"/>
         <v>254</v>
       </c>
-      <c r="I74" s="4" t="str">
+      <c r="I74" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J74" s="4" t="str">
+      <c r="J74" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K74" s="4" t="str">
+      <c r="K74" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#236B70", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L74" s="4" t="str">
+      <c r="L74" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #236B70; color: #FFFFFF;"&gt;#236B70&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(35,107,112, 1); color: #FFFFFF;"&gt;#236B70&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="5" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C75" s="4" t="str">
+      <c r="C75" s="5" t="str">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="D75" s="4" t="str">
+      <c r="D75" s="5" t="str">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="5">
         <f t="shared" si="15"/>
         <v>112</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="5">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="5">
         <f t="shared" si="17"/>
         <v>153</v>
       </c>
-      <c r="I75" s="4" t="str">
+      <c r="I75" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J75" s="4" t="str">
+      <c r="J75" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K75" s="4" t="str">
+      <c r="K75" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#007029", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L75" s="4" t="str">
+      <c r="L75" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #007029; color: #FFFFFF;"&gt;#007029&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(0,112,41, 1); color: #FFFFFF;"&gt;#007029&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="4" t="str">
         <f t="shared" si="11"/>
         <v>A8</v>
       </c>
-      <c r="C76" s="5" t="str">
+      <c r="C76" s="4" t="str">
         <f t="shared" si="12"/>
         <v>00</v>
       </c>
-      <c r="D76" s="5" t="str">
+      <c r="D76" s="4" t="str">
         <f t="shared" si="13"/>
         <v>00</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="4">
         <f t="shared" si="14"/>
         <v>168</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="4">
         <f t="shared" si="17"/>
         <v>168</v>
       </c>
-      <c r="I76" s="5" t="str">
+      <c r="I76" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J76" s="5" t="str">
+      <c r="J76" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K76" s="5" t="str">
+      <c r="K76" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#A80000", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L76" s="5" t="str">
+      <c r="L76" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #A80000; color: #FFFFFF;"&gt;#A80000&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(168,0,0, 1); color: #FFFFFF;"&gt;#A80000&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="4" t="str">
         <f t="shared" si="11"/>
         <v>5C</v>
       </c>
-      <c r="C77" s="5" t="str">
+      <c r="C77" s="4" t="str">
         <f t="shared" si="12"/>
         <v>00</v>
       </c>
-      <c r="D77" s="5" t="str">
+      <c r="D77" s="4" t="str">
         <f t="shared" si="13"/>
         <v>5C</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <f t="shared" si="14"/>
         <v>92</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="4">
         <f t="shared" si="16"/>
         <v>92</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="4">
         <f t="shared" si="17"/>
         <v>184</v>
       </c>
-      <c r="I77" s="5" t="str">
+      <c r="I77" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J77" s="5" t="str">
+      <c r="J77" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K77" s="5" t="str">
+      <c r="K77" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#5C005C", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L77" s="5" t="str">
+      <c r="L77" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #5C005C; color: #FFFFFF;"&gt;#5C005C&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(92,0,92, 1); color: #FFFFFF;"&gt;#5C005C&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="4" t="str">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="C78" s="5" t="str">
+      <c r="C78" s="4" t="str">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="D78" s="5" t="str">
+      <c r="D78" s="4" t="str">
         <f t="shared" si="13"/>
         <v>5A</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="4">
         <f t="shared" si="16"/>
         <v>90</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="4">
         <f t="shared" si="17"/>
         <v>160</v>
       </c>
-      <c r="I78" s="5" t="str">
+      <c r="I78" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J78" s="5" t="str">
+      <c r="J78" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K78" s="5" t="str">
+      <c r="K78" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#32145A", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L78" s="5" t="str">
+      <c r="L78" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #32145A; color: #FFFFFF;"&gt;#32145A&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B79" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(50,20,90, 1); color: #FFFFFF;"&gt;#32145A&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C79" s="5" t="str">
+      <c r="C79" s="4" t="str">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="D79" s="5" t="str">
+      <c r="D79" s="4" t="str">
         <f t="shared" si="13"/>
         <v>8F</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="4">
         <f t="shared" si="16"/>
         <v>143</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="4">
         <f t="shared" si="17"/>
         <v>167</v>
       </c>
-      <c r="I79" s="5" t="str">
+      <c r="I79" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J79" s="5" t="str">
+      <c r="J79" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K79" s="5" t="str">
+      <c r="K79" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#00188F", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L79" s="5" t="str">
+      <c r="L79" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #00188F; color: #FFFFFF;"&gt;#00188F&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(0,24,143, 1); color: #FFFFFF;"&gt;#00188F&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C80" s="5" t="str">
+      <c r="C80" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="D80" s="5" t="str">
+      <c r="D80" s="4" t="str">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="4">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="4">
         <f t="shared" si="17"/>
         <v>112</v>
       </c>
-      <c r="I80" s="5" t="str">
+      <c r="I80" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J80" s="5" t="str">
+      <c r="J80" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K80" s="5" t="str">
+      <c r="K80" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#002050", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L80" s="5" t="str">
+      <c r="L80" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #002050; color: #FFFFFF;"&gt;#002050&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(0,32,80, 1); color: #FFFFFF;"&gt;#002050&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C81" s="5" t="str">
+      <c r="C81" s="4" t="str">
         <f t="shared" si="12"/>
         <v>4B</v>
       </c>
-      <c r="D81" s="5" t="str">
+      <c r="D81" s="4" t="str">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="4">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <f t="shared" si="17"/>
         <v>155</v>
       </c>
-      <c r="I81" s="5" t="str">
+      <c r="I81" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J81" s="5" t="str">
+      <c r="J81" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K81" s="5" t="str">
+      <c r="K81" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#004B50", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L81" s="5" t="str">
+      <c r="L81" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #004B50; color: #FFFFFF;"&gt;#004B50&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B82" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(0,75,80, 1); color: #FFFFFF;"&gt;#004B50&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C82" s="5" t="str">
+      <c r="C82" s="4" t="str">
         <f t="shared" si="12"/>
         <v>4B</v>
       </c>
-      <c r="D82" s="5" t="str">
+      <c r="D82" s="4" t="str">
         <f t="shared" si="13"/>
         <v>1C</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="4">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <f t="shared" si="17"/>
         <v>103</v>
       </c>
-      <c r="I82" s="5" t="str">
+      <c r="I82" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J82" s="5" t="str">
+      <c r="J82" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K82" s="5" t="str">
+      <c r="K82" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#004B1C", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L82" s="5" t="str">
+      <c r="L82" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #004B1C; color: #FFFFFF;"&gt;#004B1C&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(0,75,28, 1); color: #FFFFFF;"&gt;#004B1C&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="5" t="str">
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="C83" s="4" t="str">
+      <c r="C83" s="5" t="str">
         <f t="shared" si="12"/>
         <v>00</v>
       </c>
-      <c r="D83" s="4" t="str">
+      <c r="D83" s="5" t="str">
         <f t="shared" si="13"/>
         <v>00</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="5">
         <f t="shared" si="14"/>
         <v>105</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="5">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="I83" s="4" t="str">
+      <c r="I83" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J83" s="4" t="str">
+      <c r="J83" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K83" s="4" t="str">
+      <c r="K83" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#690000", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L83" s="4" t="str">
+      <c r="L83" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #690000; color: #FFFFFF;"&gt;#690000&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(105,0,0, 1); color: #FFFFFF;"&gt;#690000&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="5" t="str">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="C84" s="4" t="str">
+      <c r="C84" s="5" t="str">
         <f t="shared" si="12"/>
         <v>00</v>
       </c>
-      <c r="D84" s="4" t="str">
+      <c r="D84" s="5" t="str">
         <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="5">
         <f t="shared" si="14"/>
         <v>56</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="5">
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="5">
         <f t="shared" si="17"/>
         <v>112</v>
       </c>
-      <c r="I84" s="4" t="str">
+      <c r="I84" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J84" s="4" t="str">
+      <c r="J84" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K84" s="4" t="str">
+      <c r="K84" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#380038", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L84" s="4" t="str">
+      <c r="L84" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #380038; color: #FFFFFF;"&gt;#380038&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B85" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(56,0,56, 1); color: #FFFFFF;"&gt;#380038&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="5" t="str">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="C85" s="4" t="str">
+      <c r="C85" s="5" t="str">
         <f t="shared" si="12"/>
         <v>0C</v>
       </c>
-      <c r="D85" s="4" t="str">
+      <c r="D85" s="5" t="str">
         <f t="shared" si="13"/>
         <v>3D</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="5">
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="5">
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <f t="shared" si="16"/>
         <v>61</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="5">
         <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="I85" s="4" t="str">
+      <c r="I85" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J85" s="4" t="str">
+      <c r="J85" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K85" s="4" t="str">
+      <c r="K85" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#220C3D", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L85" s="4" t="str">
+      <c r="L85" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #220C3D; color: #FFFFFF;"&gt;#220C3D&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(34,12,61, 1); color: #FFFFFF;"&gt;#220C3D&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="5" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C86" s="4" t="str">
+      <c r="C86" s="5" t="str">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="D86" s="4" t="str">
+      <c r="D86" s="5" t="str">
         <f t="shared" si="13"/>
         <v>63</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="5">
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="5">
         <f t="shared" si="16"/>
         <v>99</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="5">
         <f t="shared" si="17"/>
         <v>118</v>
       </c>
-      <c r="I86" s="4" t="str">
+      <c r="I86" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J86" s="4" t="str">
+      <c r="J86" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K86" s="4" t="str">
+      <c r="K86" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#001363", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L86" s="4" t="str">
+      <c r="L86" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #001363; color: #FFFFFF;"&gt;#001363&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(0,19,99, 1); color: #FFFFFF;"&gt;#001363&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="5" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C87" s="4" t="str">
+      <c r="C87" s="5" t="str">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="D87" s="4" t="str">
+      <c r="D87" s="5" t="str">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="5">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="5">
         <f t="shared" si="17"/>
         <v>58</v>
       </c>
-      <c r="I87" s="4" t="str">
+      <c r="I87" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J87" s="4" t="str">
+      <c r="J87" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K87" s="4" t="str">
+      <c r="K87" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#001129", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L87" s="4" t="str">
+      <c r="L87" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #001129; color: #FFFFFF;"&gt;#001129&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B88" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(0,17,41, 1); color: #FFFFFF;"&gt;#001129&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" s="5" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C88" s="4" t="str">
+      <c r="C88" s="5" t="str">
         <f t="shared" si="12"/>
         <v>2F</v>
       </c>
-      <c r="D88" s="4" t="str">
+      <c r="D88" s="5" t="str">
         <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="5">
         <f t="shared" si="15"/>
         <v>47</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="5">
         <f t="shared" si="16"/>
         <v>51</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="5">
         <f t="shared" si="17"/>
         <v>98</v>
       </c>
-      <c r="I88" s="4" t="str">
+      <c r="I88" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J88" s="4" t="str">
+      <c r="J88" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K88" s="4" t="str">
+      <c r="K88" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#002F33", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L88" s="4" t="str">
+      <c r="L88" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #002F33; color: #FFFFFF;"&gt;#002F33&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(0,47,51, 1); color: #FFFFFF;"&gt;#002F33&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="5" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
-      <c r="C89" s="4" t="str">
+      <c r="C89" s="5" t="str">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="D89" s="4" t="str">
+      <c r="D89" s="5" t="str">
         <f t="shared" si="13"/>
         <v>0D</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="5">
         <f t="shared" si="15"/>
         <v>36</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="5">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="5">
         <f t="shared" si="17"/>
         <v>49</v>
       </c>
-      <c r="I89" s="4" t="str">
+      <c r="I89" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J89" s="4" t="str">
+      <c r="J89" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K89" s="4" t="str">
+      <c r="K89" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#00240D", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L89" s="4" t="str">
+      <c r="L89" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #00240D; color: #FFFFFF;"&gt;#00240D&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B90" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(0,36,13, 1); color: #FFFFFF;"&gt;#00240D&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="4" t="str">
         <f t="shared" si="11"/>
         <v>F3</v>
       </c>
-      <c r="C90" s="5" t="str">
+      <c r="C90" s="4" t="str">
         <f t="shared" si="12"/>
         <v>F3</v>
       </c>
-      <c r="D90" s="5" t="str">
+      <c r="D90" s="4" t="str">
         <f t="shared" si="13"/>
         <v>F3</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <f t="shared" si="14"/>
         <v>243</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <f t="shared" si="15"/>
         <v>243</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="4">
         <f t="shared" si="16"/>
         <v>243</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="4">
         <f t="shared" si="17"/>
         <v>729</v>
       </c>
-      <c r="I90" s="5" t="str">
+      <c r="I90" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J90" s="5" t="str">
+      <c r="J90" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K90" s="5" t="str">
+      <c r="K90" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#F3F3F3", "foreground": "#000000"}</v>
       </c>
-      <c r="L90" s="5" t="str">
+      <c r="L90" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #F3F3F3; color: #000000;"&gt;#F3F3F3&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(243,243,243, 1); color: #000000;"&gt;#F3F3F3&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="4" t="str">
         <f t="shared" si="11"/>
         <v>E6</v>
       </c>
-      <c r="C91" s="5" t="str">
+      <c r="C91" s="4" t="str">
         <f t="shared" si="12"/>
         <v>E6</v>
       </c>
-      <c r="D91" s="5" t="str">
+      <c r="D91" s="4" t="str">
         <f t="shared" si="13"/>
         <v>E6</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <f t="shared" si="14"/>
         <v>230</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <f t="shared" si="15"/>
         <v>230</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="4">
         <f t="shared" si="16"/>
         <v>230</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="4">
         <f t="shared" si="17"/>
         <v>690</v>
       </c>
-      <c r="I91" s="5" t="str">
+      <c r="I91" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J91" s="5" t="str">
+      <c r="J91" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K91" s="5" t="str">
+      <c r="K91" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#E6E6E6", "foreground": "#000000"}</v>
       </c>
-      <c r="L91" s="5" t="str">
+      <c r="L91" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #E6E6E6; color: #000000;"&gt;#E6E6E6&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(230,230,230, 1); color: #000000;"&gt;#E6E6E6&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="4" t="str">
         <f t="shared" si="11"/>
         <v>D2</v>
       </c>
-      <c r="C92" s="5" t="str">
+      <c r="C92" s="4" t="str">
         <f t="shared" si="12"/>
         <v>D2</v>
       </c>
-      <c r="D92" s="5" t="str">
+      <c r="D92" s="4" t="str">
         <f t="shared" si="13"/>
         <v>D2</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <f t="shared" si="14"/>
         <v>210</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <f t="shared" si="15"/>
         <v>210</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="4">
         <f t="shared" si="16"/>
         <v>210</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="4">
         <f t="shared" si="17"/>
         <v>630</v>
       </c>
-      <c r="I92" s="5" t="str">
+      <c r="I92" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J92" s="5" t="str">
+      <c r="J92" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K92" s="5" t="str">
+      <c r="K92" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#D2D2D2", "foreground": "#000000"}</v>
       </c>
-      <c r="L92" s="5" t="str">
+      <c r="L92" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #D2D2D2; color: #000000;"&gt;#D2D2D2&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B93" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(210,210,210, 1); color: #000000;"&gt;#D2D2D2&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="4" t="str">
         <f t="shared" si="11"/>
         <v>C2</v>
       </c>
-      <c r="C93" s="5" t="str">
+      <c r="C93" s="4" t="str">
         <f t="shared" si="12"/>
         <v>C2</v>
       </c>
-      <c r="D93" s="5" t="str">
+      <c r="D93" s="4" t="str">
         <f t="shared" si="13"/>
         <v>C2</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <f t="shared" si="14"/>
         <v>194</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <f t="shared" si="15"/>
         <v>194</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="4">
         <f t="shared" si="16"/>
         <v>194</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="4">
         <f t="shared" si="17"/>
         <v>582</v>
       </c>
-      <c r="I93" s="5" t="str">
+      <c r="I93" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J93" s="5" t="str">
+      <c r="J93" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K93" s="5" t="str">
+      <c r="K93" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#C2C2C2", "foreground": "#000000"}</v>
       </c>
-      <c r="L93" s="5" t="str">
+      <c r="L93" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #C2C2C2; color: #000000;"&gt;#C2C2C2&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(194,194,194, 1); color: #000000;"&gt;#C2C2C2&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="4" t="str">
         <f t="shared" si="11"/>
         <v>B2</v>
       </c>
-      <c r="C94" s="5" t="str">
+      <c r="C94" s="4" t="str">
         <f t="shared" si="12"/>
         <v>B2</v>
       </c>
-      <c r="D94" s="5" t="str">
+      <c r="D94" s="4" t="str">
         <f t="shared" si="13"/>
         <v>B2</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <f t="shared" si="14"/>
         <v>178</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="4">
         <f t="shared" si="15"/>
         <v>178</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="4">
         <f t="shared" si="16"/>
         <v>178</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="4">
         <f t="shared" si="17"/>
         <v>534</v>
       </c>
-      <c r="I94" s="5" t="str">
+      <c r="I94" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J94" s="5" t="str">
+      <c r="J94" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K94" s="5" t="str">
+      <c r="K94" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#B2B2B2", "foreground": "#000000"}</v>
       </c>
-      <c r="L94" s="5" t="str">
+      <c r="L94" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #B2B2B2; color: #000000;"&gt;#B2B2B2&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B95" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(178,178,178, 1); color: #000000;"&gt;#B2B2B2&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="4" t="str">
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="C95" s="5" t="str">
+      <c r="C95" s="4" t="str">
         <f t="shared" si="12"/>
         <v>93</v>
       </c>
-      <c r="D95" s="5" t="str">
+      <c r="D95" s="4" t="str">
         <f t="shared" si="13"/>
         <v>93</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="4">
         <f t="shared" si="15"/>
         <v>147</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="4">
         <f t="shared" si="16"/>
         <v>147</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="4">
         <f t="shared" si="17"/>
         <v>441</v>
       </c>
-      <c r="I95" s="5" t="str">
+      <c r="I95" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J95" s="5" t="str">
+      <c r="J95" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K95" s="5" t="str">
+      <c r="K95" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#939393", "foreground": "#000000"}</v>
       </c>
-      <c r="L95" s="5" t="str">
+      <c r="L95" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #939393; color: #000000;"&gt;#939393&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(147,147,147, 1); color: #000000;"&gt;#939393&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="4" t="str">
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
-      <c r="C96" s="5" t="str">
+      <c r="C96" s="4" t="str">
         <f t="shared" si="12"/>
         <v>73</v>
       </c>
-      <c r="D96" s="5" t="str">
+      <c r="D96" s="4" t="str">
         <f t="shared" si="13"/>
         <v>73</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <f t="shared" si="15"/>
         <v>115</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="4">
         <f t="shared" si="16"/>
         <v>115</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="4">
         <f t="shared" si="17"/>
         <v>345</v>
       </c>
-      <c r="I96" s="5" t="str">
+      <c r="I96" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J96" s="5" t="str">
+      <c r="J96" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K96" s="5" t="str">
+      <c r="K96" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#737373", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L96" s="5" t="str">
+      <c r="L96" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #737373; color: #FFFFFF;"&gt;#737373&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(115,115,115, 1); color: #FFFFFF;"&gt;#737373&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="4" t="str">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="C97" s="5" t="str">
+      <c r="C97" s="4" t="str">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="D97" s="5" t="str">
+      <c r="D97" s="4" t="str">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <f t="shared" si="15"/>
         <v>80</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="4">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="4">
         <f t="shared" si="17"/>
         <v>240</v>
       </c>
-      <c r="I97" s="5" t="str">
+      <c r="I97" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J97" s="5" t="str">
+      <c r="J97" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K97" s="5" t="str">
+      <c r="K97" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#505050", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L97" s="5" t="str">
+      <c r="L97" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #505050; color: #FFFFFF;"&gt;#505050&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B98" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(80,80,80, 1); color: #FFFFFF;"&gt;#505050&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="4" t="str">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="C98" s="5" t="str">
+      <c r="C98" s="4" t="str">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="D98" s="5" t="str">
+      <c r="D98" s="4" t="str">
         <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="4">
         <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="4">
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="I98" s="5" t="str">
+      <c r="I98" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J98" s="5" t="str">
+      <c r="J98" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K98" s="5" t="str">
+      <c r="K98" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#282828", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L98" s="5" t="str">
+      <c r="L98" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #282828; color: #FFFFFF;"&gt;#282828&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(40,40,40, 1); color: #FFFFFF;"&gt;#282828&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="5" t="str">
         <f t="shared" si="11"/>
         <v>F7</v>
       </c>
-      <c r="C99" s="4" t="str">
+      <c r="C99" s="5" t="str">
         <f t="shared" si="12"/>
         <v>E3</v>
       </c>
-      <c r="D99" s="4" t="str">
+      <c r="D99" s="5" t="str">
         <f t="shared" si="13"/>
         <v>D6</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="5">
         <f t="shared" si="14"/>
         <v>247</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="5">
         <f t="shared" si="15"/>
         <v>227</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <f t="shared" si="16"/>
         <v>214</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="5">
         <f t="shared" si="17"/>
         <v>688</v>
       </c>
-      <c r="I99" s="4" t="str">
+      <c r="I99" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J99" s="4" t="str">
+      <c r="J99" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K99" s="4" t="str">
+      <c r="K99" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#F7E3D6", "foreground": "#000000"}</v>
       </c>
-      <c r="L99" s="4" t="str">
+      <c r="L99" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #F7E3D6; color: #000000;"&gt;#F7E3D6&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B100" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(247,227,214, 1); color: #000000;"&gt;#F7E3D6&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="5" t="str">
         <f t="shared" si="11"/>
         <v>F8</v>
       </c>
-      <c r="C100" s="4" t="str">
+      <c r="C100" s="5" t="str">
         <f t="shared" si="12"/>
         <v>D5</v>
       </c>
-      <c r="D100" s="4" t="str">
+      <c r="D100" s="5" t="str">
         <f t="shared" si="13"/>
         <v>B9</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="5">
         <f t="shared" si="14"/>
         <v>248</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="5">
         <f t="shared" si="15"/>
         <v>213</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="5">
         <f t="shared" si="16"/>
         <v>185</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="5">
         <f t="shared" si="17"/>
         <v>646</v>
       </c>
-      <c r="I100" s="4" t="str">
+      <c r="I100" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J100" s="4" t="str">
+      <c r="J100" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K100" s="4" t="str">
+      <c r="K100" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#F8D5B9", "foreground": "#000000"}</v>
       </c>
-      <c r="L100" s="4" t="str">
+      <c r="L100" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #F8D5B9; color: #000000;"&gt;#F8D5B9&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B101" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(248,213,185, 1); color: #000000;"&gt;#F8D5B9&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="5" t="str">
         <f t="shared" si="11"/>
         <v>EA</v>
       </c>
-      <c r="C101" s="4" t="str">
+      <c r="C101" s="5" t="str">
         <f t="shared" si="12"/>
         <v>CB</v>
       </c>
-      <c r="D101" s="4" t="str">
+      <c r="D101" s="5" t="str">
         <f t="shared" si="13"/>
         <v>C6</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="5">
         <f t="shared" si="14"/>
         <v>234</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="5">
         <f t="shared" si="15"/>
         <v>203</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <f t="shared" si="16"/>
         <v>198</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="5">
         <f t="shared" si="17"/>
         <v>635</v>
       </c>
-      <c r="I101" s="4" t="str">
+      <c r="I101" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J101" s="4" t="str">
+      <c r="J101" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K101" s="4" t="str">
+      <c r="K101" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#EACBC6", "foreground": "#000000"}</v>
       </c>
-      <c r="L101" s="4" t="str">
+      <c r="L101" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #EACBC6; color: #000000;"&gt;#EACBC6&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B102" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(234,203,198, 1); color: #000000;"&gt;#EACBC6&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="5" t="str">
         <f t="shared" si="11"/>
         <v>DE</v>
       </c>
-      <c r="C102" s="4" t="str">
+      <c r="C102" s="5" t="str">
         <f t="shared" si="12"/>
         <v>BD</v>
       </c>
-      <c r="D102" s="4" t="str">
+      <c r="D102" s="5" t="str">
         <f t="shared" si="13"/>
         <v>A5</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="5">
         <f t="shared" si="14"/>
         <v>222</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="5">
         <f t="shared" si="15"/>
         <v>189</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="5">
         <f t="shared" si="16"/>
         <v>165</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="5">
         <f t="shared" si="17"/>
         <v>576</v>
       </c>
-      <c r="I102" s="4" t="str">
+      <c r="I102" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J102" s="4" t="str">
+      <c r="J102" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K102" s="4" t="str">
+      <c r="K102" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#DEBDA5", "foreground": "#000000"}</v>
       </c>
-      <c r="L102" s="4" t="str">
+      <c r="L102" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #DEBDA5; color: #000000;"&gt;#DEBDA5&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(222,189,165, 1); color: #000000;"&gt;#DEBDA5&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="5" t="str">
         <f t="shared" si="11"/>
         <v>D8</v>
       </c>
-      <c r="C103" s="4" t="str">
+      <c r="C103" s="5" t="str">
         <f t="shared" si="12"/>
         <v>B0</v>
       </c>
-      <c r="D103" s="4" t="str">
+      <c r="D103" s="5" t="str">
         <f t="shared" si="13"/>
         <v>7F</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="5">
         <f t="shared" si="14"/>
         <v>216</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="5">
         <f t="shared" si="15"/>
         <v>176</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="5">
         <f t="shared" si="16"/>
         <v>127</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="5">
         <f t="shared" si="17"/>
         <v>519</v>
       </c>
-      <c r="I103" s="4" t="str">
+      <c r="I103" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J103" s="4" t="str">
+      <c r="J103" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K103" s="4" t="str">
+      <c r="K103" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#D8B07F", "foreground": "#000000"}</v>
       </c>
-      <c r="L103" s="4" t="str">
+      <c r="L103" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #D8B07F; color: #000000;"&gt;#D8B07F&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B104" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(216,176,127, 1); color: #000000;"&gt;#D8B07F&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="5" t="str">
         <f t="shared" si="11"/>
         <v>D2</v>
       </c>
-      <c r="C104" s="4" t="str">
+      <c r="C104" s="5" t="str">
         <f t="shared" si="12"/>
         <v>B6</v>
       </c>
-      <c r="D104" s="4" t="str">
+      <c r="D104" s="5" t="str">
         <f t="shared" si="13"/>
         <v>9B</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="5">
         <f t="shared" si="14"/>
         <v>210</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="5">
         <f t="shared" si="15"/>
         <v>182</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="5">
         <f t="shared" si="16"/>
         <v>155</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="5">
         <f t="shared" si="17"/>
         <v>547</v>
       </c>
-      <c r="I104" s="4" t="str">
+      <c r="I104" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J104" s="4" t="str">
+      <c r="J104" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K104" s="4" t="str">
+      <c r="K104" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#D2B69B", "foreground": "#000000"}</v>
       </c>
-      <c r="L104" s="4" t="str">
+      <c r="L104" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #D2B69B; color: #000000;"&gt;#D2B69B&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B105" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(210,182,155, 1); color: #000000;"&gt;#D2B69B&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="5" t="str">
         <f t="shared" si="11"/>
         <v>B4</v>
       </c>
-      <c r="C105" s="4" t="str">
+      <c r="C105" s="5" t="str">
         <f t="shared" si="12"/>
         <v>8F</v>
       </c>
-      <c r="D105" s="4" t="str">
+      <c r="D105" s="5" t="str">
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="5">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="5">
         <f t="shared" si="15"/>
         <v>143</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="5">
         <f t="shared" si="16"/>
         <v>117</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="5">
         <f t="shared" si="17"/>
         <v>440</v>
       </c>
-      <c r="I105" s="4" t="str">
+      <c r="I105" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J105" s="4" t="str">
+      <c r="J105" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K105" s="4" t="str">
+      <c r="K105" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#B48F75", "foreground": "#000000"}</v>
       </c>
-      <c r="L105" s="4" t="str">
+      <c r="L105" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #B48F75; color: #000000;"&gt;#B48F75&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B106" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(180,143,117, 1); color: #000000;"&gt;#B48F75&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="5" t="str">
         <f t="shared" si="11"/>
         <v>8E</v>
       </c>
-      <c r="C106" s="4" t="str">
+      <c r="C106" s="5" t="str">
         <f t="shared" si="12"/>
         <v>7A</v>
       </c>
-      <c r="D106" s="4" t="str">
+      <c r="D106" s="5" t="str">
         <f t="shared" si="13"/>
         <v>6F</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="5">
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="5">
         <f t="shared" si="15"/>
         <v>122</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="5">
         <f t="shared" si="16"/>
         <v>111</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="5">
         <f t="shared" si="17"/>
         <v>375</v>
       </c>
-      <c r="I106" s="4" t="str">
+      <c r="I106" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J106" s="4" t="str">
+      <c r="J106" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K106" s="4" t="str">
+      <c r="K106" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#8E7A6F", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L106" s="4" t="str">
+      <c r="L106" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #8E7A6F; color: #FFFFFF;"&gt;#8E7A6F&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B107" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(142,122,111, 1); color: #FFFFFF;"&gt;#8E7A6F&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="5" t="str">
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
-      <c r="C107" s="4" t="str">
+      <c r="C107" s="5" t="str">
         <f t="shared" si="12"/>
         <v>7F</v>
       </c>
-      <c r="D107" s="4" t="str">
+      <c r="D107" s="5" t="str">
         <f t="shared" si="13"/>
         <v>76</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="5">
         <f t="shared" si="14"/>
         <v>151</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="5">
         <f t="shared" si="15"/>
         <v>127</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="5">
         <f t="shared" si="16"/>
         <v>118</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="5">
         <f t="shared" si="17"/>
         <v>396</v>
       </c>
-      <c r="I107" s="4" t="str">
+      <c r="I107" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J107" s="4" t="str">
+      <c r="J107" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K107" s="4" t="str">
+      <c r="K107" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#977F76", "foreground": "#000000"}</v>
       </c>
-      <c r="L107" s="4" t="str">
+      <c r="L107" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #977F76; color: #000000;"&gt;#977F76&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B108" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(151,127,118, 1); color: #000000;"&gt;#977F76&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" s="4" t="str">
         <f t="shared" si="11"/>
         <v>F7</v>
       </c>
-      <c r="C108" s="5" t="str">
+      <c r="C108" s="4" t="str">
         <f t="shared" si="12"/>
         <v>D7</v>
       </c>
-      <c r="D108" s="5" t="str">
+      <c r="D108" s="4" t="str">
         <f t="shared" si="13"/>
         <v>C4</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="4">
         <f t="shared" si="14"/>
         <v>247</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="4">
         <f t="shared" si="15"/>
         <v>215</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="4">
         <f t="shared" si="16"/>
         <v>196</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="4">
         <f t="shared" si="17"/>
         <v>658</v>
       </c>
-      <c r="I108" s="5" t="str">
+      <c r="I108" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J108" s="5" t="str">
+      <c r="J108" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K108" s="5" t="str">
+      <c r="K108" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#F7D7C4", "foreground": "#000000"}</v>
       </c>
-      <c r="L108" s="5" t="str">
+      <c r="L108" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #F7D7C4; color: #000000;"&gt;#F7D7C4&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B109" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(247,215,196, 1); color: #000000;"&gt;#F7D7C4&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="4" t="str">
         <f t="shared" si="11"/>
         <v>F6</v>
       </c>
-      <c r="C109" s="5" t="str">
+      <c r="C109" s="4" t="str">
         <f t="shared" si="12"/>
         <v>CA</v>
       </c>
-      <c r="D109" s="5" t="str">
+      <c r="D109" s="4" t="str">
         <f t="shared" si="13"/>
         <v>A7</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="4">
         <f t="shared" si="14"/>
         <v>246</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="4">
         <f t="shared" si="15"/>
         <v>202</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="4">
         <f t="shared" si="16"/>
         <v>167</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="4">
         <f t="shared" si="17"/>
         <v>615</v>
       </c>
-      <c r="I109" s="5" t="str">
+      <c r="I109" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J109" s="5" t="str">
+      <c r="J109" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K109" s="5" t="str">
+      <c r="K109" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#F6CAA7", "foreground": "#000000"}</v>
       </c>
-      <c r="L109" s="5" t="str">
+      <c r="L109" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #F6CAA7; color: #000000;"&gt;#F6CAA7&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B110" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(246,202,167, 1); color: #000000;"&gt;#F6CAA7&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="4" t="str">
         <f t="shared" si="11"/>
         <v>F0</v>
       </c>
-      <c r="C110" s="5" t="str">
+      <c r="C110" s="4" t="str">
         <f t="shared" si="12"/>
         <v>BE</v>
       </c>
-      <c r="D110" s="5" t="str">
+      <c r="D110" s="4" t="str">
         <f t="shared" si="13"/>
         <v>B4</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <f t="shared" si="14"/>
         <v>240</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="4">
         <f t="shared" si="15"/>
         <v>190</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="4">
         <f t="shared" si="16"/>
         <v>180</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="4">
         <f t="shared" si="17"/>
         <v>610</v>
       </c>
-      <c r="I110" s="5" t="str">
+      <c r="I110" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J110" s="5" t="str">
+      <c r="J110" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K110" s="5" t="str">
+      <c r="K110" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#F0BEB4", "foreground": "#000000"}</v>
       </c>
-      <c r="L110" s="5" t="str">
+      <c r="L110" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #F0BEB4; color: #000000;"&gt;#F0BEB4&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B111" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(240,190,180, 1); color: #000000;"&gt;#F0BEB4&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="4" t="str">
         <f t="shared" si="11"/>
         <v>D8</v>
       </c>
-      <c r="C111" s="5" t="str">
+      <c r="C111" s="4" t="str">
         <f t="shared" si="12"/>
         <v>B0</v>
       </c>
-      <c r="D111" s="5" t="str">
+      <c r="D111" s="4" t="str">
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <f t="shared" si="14"/>
         <v>216</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="4">
         <f t="shared" si="15"/>
         <v>176</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="4">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="4">
         <f t="shared" si="17"/>
         <v>540</v>
       </c>
-      <c r="I111" s="5" t="str">
+      <c r="I111" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J111" s="5" t="str">
+      <c r="J111" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K111" s="5" t="str">
+      <c r="K111" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#D8B094", "foreground": "#000000"}</v>
       </c>
-      <c r="L111" s="5" t="str">
+      <c r="L111" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #D8B094; color: #000000;"&gt;#D8B094&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B112" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(216,176,148, 1); color: #000000;"&gt;#D8B094&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" s="4" t="str">
         <f t="shared" si="11"/>
         <v>CE</v>
       </c>
-      <c r="C112" s="5" t="str">
+      <c r="C112" s="4" t="str">
         <f t="shared" si="12"/>
         <v>9C</v>
       </c>
-      <c r="D112" s="5" t="str">
+      <c r="D112" s="4" t="str">
         <f t="shared" si="13"/>
         <v>5F</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <f t="shared" si="14"/>
         <v>206</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="4">
         <f t="shared" si="15"/>
         <v>156</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="4">
         <f t="shared" si="16"/>
         <v>95</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="4">
         <f t="shared" si="17"/>
         <v>457</v>
       </c>
-      <c r="I112" s="5" t="str">
+      <c r="I112" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J112" s="5" t="str">
+      <c r="J112" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K112" s="5" t="str">
+      <c r="K112" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#CE9C5F", "foreground": "#000000"}</v>
       </c>
-      <c r="L112" s="5" t="str">
+      <c r="L112" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #CE9C5F; color: #000000;"&gt;#CE9C5F&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B113" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(206,156,95, 1); color: #000000;"&gt;#CE9C5F&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B113" s="4" t="str">
         <f t="shared" si="11"/>
         <v>BB</v>
       </c>
-      <c r="C113" s="5" t="str">
+      <c r="C113" s="4" t="str">
         <f t="shared" si="12"/>
         <v>91</v>
       </c>
-      <c r="D113" s="5" t="str">
+      <c r="D113" s="4" t="str">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <f t="shared" si="14"/>
         <v>187</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="4">
         <f t="shared" si="15"/>
         <v>145</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="4">
         <f t="shared" si="16"/>
         <v>103</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="4">
         <f t="shared" si="17"/>
         <v>435</v>
       </c>
-      <c r="I113" s="5" t="str">
+      <c r="I113" s="4" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J113" s="5" t="str">
+      <c r="J113" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K113" s="5" t="str">
+      <c r="K113" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#BB9167", "foreground": "#000000"}</v>
       </c>
-      <c r="L113" s="5" t="str">
+      <c r="L113" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #BB9167; color: #000000;"&gt;#BB9167&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B114" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(187,145,103, 1); color: #000000;"&gt;#BB9167&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" s="4" t="str">
         <f t="shared" si="11"/>
         <v>8E</v>
       </c>
-      <c r="C114" s="5" t="str">
+      <c r="C114" s="4" t="str">
         <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="D114" s="5" t="str">
+      <c r="D114" s="4" t="str">
         <f t="shared" si="13"/>
         <v>2E</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4">
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="4">
         <f t="shared" si="15"/>
         <v>86</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="4">
         <f t="shared" si="16"/>
         <v>46</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="4">
         <f t="shared" si="17"/>
         <v>274</v>
       </c>
-      <c r="I114" s="5" t="str">
+      <c r="I114" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J114" s="5" t="str">
+      <c r="J114" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K114" s="5" t="str">
+      <c r="K114" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#8E562E", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L114" s="5" t="str">
+      <c r="L114" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #8E562E; color: #FFFFFF;"&gt;#8E562E&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B115" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(142,86,46, 1); color: #FFFFFF;"&gt;#8E562E&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B115" s="4" t="str">
         <f t="shared" si="11"/>
         <v>72</v>
       </c>
-      <c r="C115" s="5" t="str">
+      <c r="C115" s="4" t="str">
         <f t="shared" si="12"/>
         <v>59</v>
       </c>
-      <c r="D115" s="5" t="str">
+      <c r="D115" s="4" t="str">
         <f t="shared" si="13"/>
         <v>4B</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="4">
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="4">
         <f t="shared" si="15"/>
         <v>89</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="4">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="4">
         <f t="shared" si="17"/>
         <v>278</v>
       </c>
-      <c r="I115" s="5" t="str">
+      <c r="I115" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J115" s="5" t="str">
+      <c r="J115" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K115" s="5" t="str">
+      <c r="K115" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#72594B", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L115" s="5" t="str">
+      <c r="L115" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #72594B; color: #FFFFFF;"&gt;#72594B&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B116" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(114,89,75, 1); color: #FFFFFF;"&gt;#72594B&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B116" s="4" t="str">
         <f t="shared" si="11"/>
         <v>61</v>
       </c>
-      <c r="C116" s="5" t="str">
+      <c r="C116" s="4" t="str">
         <f t="shared" si="12"/>
         <v>3D</v>
       </c>
-      <c r="D116" s="5" t="str">
+      <c r="D116" s="4" t="str">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="4">
         <f t="shared" si="14"/>
         <v>97</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="4">
         <f t="shared" si="15"/>
         <v>61</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="4">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="4">
         <f t="shared" si="17"/>
         <v>206</v>
       </c>
-      <c r="I116" s="5" t="str">
+      <c r="I116" s="4" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J116" s="5" t="str">
+      <c r="J116" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K116" s="5" t="str">
+      <c r="K116" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#613D30", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L116" s="5" t="str">
+      <c r="L116" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #613D30; color: #FFFFFF;"&gt;#613D30&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B117" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(97,61,48, 1); color: #FFFFFF;"&gt;#613D30&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B117" s="5" t="str">
         <f t="shared" si="11"/>
         <v>E3</v>
       </c>
-      <c r="C117" s="4" t="str">
+      <c r="C117" s="5" t="str">
         <f t="shared" si="12"/>
         <v>C6</v>
       </c>
-      <c r="D117" s="4" t="str">
+      <c r="D117" s="5" t="str">
         <f t="shared" si="13"/>
         <v>B5</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="5">
         <f t="shared" si="14"/>
         <v>227</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="5">
         <f t="shared" si="15"/>
         <v>198</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="5">
         <f t="shared" si="16"/>
         <v>181</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="5">
         <f t="shared" si="17"/>
         <v>606</v>
       </c>
-      <c r="I117" s="4" t="str">
+      <c r="I117" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J117" s="4" t="str">
+      <c r="J117" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K117" s="4" t="str">
+      <c r="K117" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#E3C6B5", "foreground": "#000000"}</v>
       </c>
-      <c r="L117" s="4" t="str">
+      <c r="L117" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #E3C6B5; color: #000000;"&gt;#E3C6B5&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B118" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(227,198,181, 1); color: #000000;"&gt;#E3C6B5&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="5" t="str">
         <f t="shared" si="11"/>
         <v>DE</v>
       </c>
-      <c r="C118" s="4" t="str">
+      <c r="C118" s="5" t="str">
         <f t="shared" si="12"/>
         <v>B6</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D118" s="5" t="str">
         <f t="shared" si="13"/>
         <v>95</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="5">
         <f t="shared" si="14"/>
         <v>222</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="5">
         <f t="shared" si="15"/>
         <v>182</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="5">
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="5">
         <f t="shared" si="17"/>
         <v>553</v>
       </c>
-      <c r="I118" s="4" t="str">
+      <c r="I118" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J118" s="4" t="str">
+      <c r="J118" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K118" s="4" t="str">
+      <c r="K118" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#DEB695", "foreground": "#000000"}</v>
       </c>
-      <c r="L118" s="4" t="str">
+      <c r="L118" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #DEB695; color: #000000;"&gt;#DEB695&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B119" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(222,182,149, 1); color: #000000;"&gt;#DEB695&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B119" s="5" t="str">
         <f t="shared" si="11"/>
         <v>DB</v>
       </c>
-      <c r="C119" s="4" t="str">
+      <c r="C119" s="5" t="str">
         <f t="shared" si="12"/>
         <v>9C</v>
       </c>
-      <c r="D119" s="4" t="str">
+      <c r="D119" s="5" t="str">
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="5">
         <f t="shared" si="14"/>
         <v>219</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="5">
         <f t="shared" si="15"/>
         <v>156</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="5">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="5">
         <f t="shared" si="17"/>
         <v>523</v>
       </c>
-      <c r="I119" s="4" t="str">
+      <c r="I119" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J119" s="4" t="str">
+      <c r="J119" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K119" s="4" t="str">
+      <c r="K119" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#DB9C94", "foreground": "#000000"}</v>
       </c>
-      <c r="L119" s="4" t="str">
+      <c r="L119" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #DB9C94; color: #000000;"&gt;#DB9C94&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B120" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(219,156,148, 1); color: #000000;"&gt;#DB9C94&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" s="5" t="str">
         <f t="shared" si="11"/>
         <v>B8</v>
       </c>
-      <c r="C120" s="4" t="str">
+      <c r="C120" s="5" t="str">
         <f t="shared" si="12"/>
         <v>97</v>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D120" s="5" t="str">
         <f t="shared" si="13"/>
         <v>7C</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="5">
         <f t="shared" si="14"/>
         <v>184</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F120" s="5">
         <f t="shared" si="15"/>
         <v>151</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="5">
         <f t="shared" si="16"/>
         <v>124</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="5">
         <f t="shared" si="17"/>
         <v>459</v>
       </c>
-      <c r="I120" s="4" t="str">
+      <c r="I120" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J120" s="4" t="str">
+      <c r="J120" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K120" s="4" t="str">
+      <c r="K120" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#B8977C", "foreground": "#000000"}</v>
       </c>
-      <c r="L120" s="4" t="str">
+      <c r="L120" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #B8977C; color: #000000;"&gt;#B8977C&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B121" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(184,151,124, 1); color: #000000;"&gt;#B8977C&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B121" s="5" t="str">
         <f t="shared" si="11"/>
         <v>BA</v>
       </c>
-      <c r="C121" s="4" t="str">
+      <c r="C121" s="5" t="str">
         <f t="shared" si="12"/>
         <v>8C</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="5" t="str">
         <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="5">
         <f t="shared" si="14"/>
         <v>186</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="5">
         <f t="shared" si="15"/>
         <v>140</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="5">
         <f t="shared" si="16"/>
         <v>87</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="5">
         <f t="shared" si="17"/>
         <v>413</v>
       </c>
-      <c r="I121" s="4" t="str">
+      <c r="I121" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J121" s="4" t="str">
+      <c r="J121" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K121" s="4" t="str">
+      <c r="K121" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#BA8C57", "foreground": "#000000"}</v>
       </c>
-      <c r="L121" s="4" t="str">
+      <c r="L121" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #BA8C57; color: #000000;"&gt;#BA8C57&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B122" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(186,140,87, 1); color: #000000;"&gt;#BA8C57&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="5" t="str">
         <f t="shared" si="11"/>
         <v>AB</v>
       </c>
-      <c r="C122" s="4" t="str">
+      <c r="C122" s="5" t="str">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="5" t="str">
         <f t="shared" si="13"/>
         <v>5F</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="5">
         <f t="shared" si="14"/>
         <v>171</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="5">
         <f t="shared" si="15"/>
         <v>132</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="5">
         <f t="shared" si="16"/>
         <v>95</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="5">
         <f t="shared" si="17"/>
         <v>398</v>
       </c>
-      <c r="I122" s="4" t="str">
+      <c r="I122" s="5" t="str">
         <f t="shared" si="18"/>
         <v>light</v>
       </c>
-      <c r="J122" s="4" t="str">
+      <c r="J122" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#000000</v>
       </c>
-      <c r="K122" s="4" t="str">
+      <c r="K122" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#AB845F", "foreground": "#000000"}</v>
       </c>
-      <c r="L122" s="4" t="str">
+      <c r="L122" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #AB845F; color: #000000;"&gt;#AB845F&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B123" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(171,132,95, 1); color: #000000;"&gt;#AB845F&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" s="5" t="str">
         <f t="shared" si="11"/>
         <v>70</v>
       </c>
-      <c r="C123" s="4" t="str">
+      <c r="C123" s="5" t="str">
         <f t="shared" si="12"/>
         <v>43</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="5" t="str">
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="5">
         <f t="shared" si="14"/>
         <v>112</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="5">
         <f t="shared" si="15"/>
         <v>67</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="5">
         <f t="shared" si="16"/>
         <v>34</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="5">
         <f t="shared" si="17"/>
         <v>213</v>
       </c>
-      <c r="I123" s="4" t="str">
+      <c r="I123" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J123" s="4" t="str">
+      <c r="J123" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K123" s="4" t="str">
+      <c r="K123" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#704322", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L123" s="4" t="str">
+      <c r="L123" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #704322; color: #FFFFFF;"&gt;#704322&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B124" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(112,67,34, 1); color: #FFFFFF;"&gt;#704322&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="5" t="str">
         <f t="shared" si="11"/>
         <v>66</v>
       </c>
-      <c r="C124" s="4" t="str">
+      <c r="C124" s="5" t="str">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="5" t="str">
         <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="5">
         <f t="shared" si="14"/>
         <v>102</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="5">
         <f t="shared" si="15"/>
         <v>80</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="5">
         <f t="shared" si="16"/>
         <v>66</v>
       </c>
-      <c r="H124" s="4">
+      <c r="H124" s="5">
         <f t="shared" si="17"/>
         <v>248</v>
       </c>
-      <c r="I124" s="4" t="str">
+      <c r="I124" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J124" s="4" t="str">
+      <c r="J124" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K124" s="4" t="str">
+      <c r="K124" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#665042", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L124" s="4" t="str">
+      <c r="L124" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #665042; color: #FFFFFF;"&gt;#665042&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(102,80,66, 1); color: #FFFFFF;"&gt;#665042&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" s="5" t="str">
         <f t="shared" si="11"/>
         <v>4D</v>
       </c>
-      <c r="C125" s="4" t="str">
+      <c r="C125" s="5" t="str">
         <f t="shared" si="12"/>
         <v>2F</v>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="5" t="str">
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="5">
         <f t="shared" si="14"/>
         <v>77</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="5">
         <f t="shared" si="15"/>
         <v>47</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="5">
         <f t="shared" si="16"/>
         <v>39</v>
       </c>
-      <c r="H125" s="4">
+      <c r="H125" s="5">
         <f t="shared" si="17"/>
         <v>163</v>
       </c>
-      <c r="I125" s="4" t="str">
+      <c r="I125" s="5" t="str">
         <f t="shared" si="18"/>
         <v>dark</v>
       </c>
-      <c r="J125" s="4" t="str">
+      <c r="J125" s="5" t="str">
         <f t="shared" si="19"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K125" s="4" t="str">
+      <c r="K125" s="5" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#4D2F27", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L125" s="4" t="str">
+      <c r="L125" s="5" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #4D2F27; color: #FFFFFF;"&gt;#4D2F27&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B126" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(77,47,39, 1); color: #FFFFFF;"&gt;#4D2F27&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B126" s="4" t="str">
         <f t="shared" ref="B126:B134" si="22">MID(A126,2,2)</f>
         <v>BF</v>
       </c>
-      <c r="C126" s="5" t="str">
+      <c r="C126" s="4" t="str">
         <f t="shared" ref="C126:C134" si="23">MID(A126,4,2)</f>
         <v>A8</v>
       </c>
-      <c r="D126" s="5" t="str">
+      <c r="D126" s="4" t="str">
         <f t="shared" ref="D126:D134" si="24">MID(A126,6,2)</f>
         <v>99</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="4">
         <f t="shared" ref="E126:E134" si="25">HEX2DEC(B126)</f>
         <v>191</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="4">
         <f t="shared" ref="F126:F134" si="26">HEX2DEC(C126)</f>
         <v>168</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="4">
         <f t="shared" ref="G126:G134" si="27">HEX2DEC(D126)</f>
         <v>153</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="4">
         <f t="shared" ref="H126:H134" si="28">SUM(E126:G126)</f>
         <v>512</v>
       </c>
-      <c r="I126" s="5" t="str">
+      <c r="I126" s="4" t="str">
         <f t="shared" ref="I126:I134" si="29">IF(H126&gt;382,"light","dark")</f>
         <v>light</v>
       </c>
-      <c r="J126" s="5" t="str">
+      <c r="J126" s="4" t="str">
         <f t="shared" ref="J126:J134" si="30">IF(H126&gt;382,"#000000","#FFFFFF")</f>
         <v>#000000</v>
       </c>
-      <c r="K126" s="5" t="str">
+      <c r="K126" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#BFA899", "foreground": "#000000"}</v>
       </c>
-      <c r="L126" s="5" t="str">
+      <c r="L126" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #BFA899; color: #000000;"&gt;#BFA899&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(191,168,153, 1); color: #000000;"&gt;#BFA899&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" s="4" t="str">
         <f t="shared" si="22"/>
         <v>C2</v>
       </c>
-      <c r="C127" s="5" t="str">
+      <c r="C127" s="4" t="str">
         <f t="shared" si="23"/>
         <v>A0</v>
       </c>
-      <c r="D127" s="5" t="str">
+      <c r="D127" s="4" t="str">
         <f t="shared" si="24"/>
         <v>81</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="4">
         <f t="shared" si="25"/>
         <v>194</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="4">
         <f t="shared" si="26"/>
         <v>160</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="4">
         <f t="shared" si="27"/>
         <v>129</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="4">
         <f t="shared" si="28"/>
         <v>483</v>
       </c>
-      <c r="I127" s="5" t="str">
+      <c r="I127" s="4" t="str">
         <f t="shared" si="29"/>
         <v>light</v>
       </c>
-      <c r="J127" s="5" t="str">
+      <c r="J127" s="4" t="str">
         <f t="shared" si="30"/>
         <v>#000000</v>
       </c>
-      <c r="K127" s="5" t="str">
+      <c r="K127" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#C2A081", "foreground": "#000000"}</v>
       </c>
-      <c r="L127" s="5" t="str">
+      <c r="L127" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #C2A081; color: #000000;"&gt;#C2A081&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B128" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(194,160,129, 1); color: #000000;"&gt;#C2A081&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="4" t="str">
         <f t="shared" si="22"/>
         <v>CB</v>
       </c>
-      <c r="C128" s="5" t="str">
+      <c r="C128" s="4" t="str">
         <f t="shared" si="23"/>
         <v>8C</v>
       </c>
-      <c r="D128" s="5" t="str">
+      <c r="D128" s="4" t="str">
         <f t="shared" si="24"/>
         <v>84</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="4">
         <f t="shared" si="25"/>
         <v>203</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="4">
         <f t="shared" si="26"/>
         <v>140</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="4">
         <f t="shared" si="27"/>
         <v>132</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="4">
         <f t="shared" si="28"/>
         <v>475</v>
       </c>
-      <c r="I128" s="5" t="str">
+      <c r="I128" s="4" t="str">
         <f t="shared" si="29"/>
         <v>light</v>
       </c>
-      <c r="J128" s="5" t="str">
+      <c r="J128" s="4" t="str">
         <f t="shared" si="30"/>
         <v>#000000</v>
       </c>
-      <c r="K128" s="5" t="str">
+      <c r="K128" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#CB8C84", "foreground": "#000000"}</v>
       </c>
-      <c r="L128" s="5" t="str">
+      <c r="L128" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #CB8C84; color: #000000;"&gt;#CB8C84&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B129" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(203,140,132, 1); color: #000000;"&gt;#CB8C84&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" s="4" t="str">
         <f t="shared" si="22"/>
         <v>91</v>
       </c>
-      <c r="C129" s="5" t="str">
+      <c r="C129" s="4" t="str">
         <f t="shared" si="23"/>
         <v>78</v>
       </c>
-      <c r="D129" s="5" t="str">
+      <c r="D129" s="4" t="str">
         <f t="shared" si="24"/>
         <v>61</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="4">
         <f t="shared" si="25"/>
         <v>145</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="4">
         <f t="shared" si="26"/>
         <v>120</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="4">
         <f t="shared" si="27"/>
         <v>97</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="4">
         <f t="shared" si="28"/>
         <v>362</v>
       </c>
-      <c r="I129" s="5" t="str">
+      <c r="I129" s="4" t="str">
         <f t="shared" si="29"/>
         <v>dark</v>
       </c>
-      <c r="J129" s="5" t="str">
+      <c r="J129" s="4" t="str">
         <f t="shared" si="30"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K129" s="5" t="str">
+      <c r="K129" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#917861", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L129" s="5" t="str">
+      <c r="L129" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #917861; color: #FFFFFF;"&gt;#917861&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B130" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(145,120,97, 1); color: #FFFFFF;"&gt;#917861&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="4" t="str">
         <f t="shared" si="22"/>
         <v>8C</v>
       </c>
-      <c r="C130" s="5" t="str">
+      <c r="C130" s="4" t="str">
         <f t="shared" si="23"/>
         <v>69</v>
       </c>
-      <c r="D130" s="5" t="str">
+      <c r="D130" s="4" t="str">
         <f t="shared" si="24"/>
         <v>43</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="4">
         <f t="shared" si="25"/>
         <v>140</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="4">
         <f t="shared" si="26"/>
         <v>105</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="4">
         <f t="shared" si="27"/>
         <v>67</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130" s="4">
         <f t="shared" si="28"/>
         <v>312</v>
       </c>
-      <c r="I130" s="5" t="str">
+      <c r="I130" s="4" t="str">
         <f t="shared" si="29"/>
         <v>dark</v>
       </c>
-      <c r="J130" s="5" t="str">
+      <c r="J130" s="4" t="str">
         <f t="shared" si="30"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K130" s="5" t="str">
+      <c r="K130" s="4" t="str">
         <f t="shared" si="20"/>
         <v>{"background": "#8C6943", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L130" s="5" t="str">
+      <c r="L130" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;td style="background-color: #8C6943; color: #FFFFFF;"&gt;#8C6943&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B131" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(140,105,67, 1); color: #FFFFFF;"&gt;#8C6943&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="4" t="str">
         <f t="shared" si="22"/>
         <v>7A</v>
       </c>
-      <c r="C131" s="5" t="str">
+      <c r="C131" s="4" t="str">
         <f t="shared" si="23"/>
         <v>5E</v>
       </c>
-      <c r="D131" s="5" t="str">
+      <c r="D131" s="4" t="str">
         <f t="shared" si="24"/>
         <v>44</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="4">
         <f t="shared" si="25"/>
         <v>122</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="4">
         <f t="shared" si="26"/>
         <v>94</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="4">
         <f t="shared" si="27"/>
         <v>68</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="4">
         <f t="shared" si="28"/>
         <v>284</v>
       </c>
-      <c r="I131" s="5" t="str">
+      <c r="I131" s="4" t="str">
         <f t="shared" si="29"/>
         <v>dark</v>
       </c>
-      <c r="J131" s="5" t="str">
+      <c r="J131" s="4" t="str">
         <f t="shared" si="30"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K131" s="5" t="str">
+      <c r="K131" s="4" t="str">
         <f t="shared" ref="K131:K139" si="31">SUBSTITUTE(_xlfn.CONCAT("{'background': '",A131,"', 'foreground': '",J131,"'}"),"'","""")</f>
         <v>{"background": "#7A5E44", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L131" s="5" t="str">
-        <f t="shared" ref="L131:L139" si="32">SUBSTITUTE(_xlfn.CONCAT("&lt;td style='background-color: ",A131,"; color: ",J131,";'&gt;",A131,"&lt;/td&gt;"),"'","""")</f>
-        <v>&lt;td style="background-color: #7A5E44; color: #FFFFFF;"&gt;#7A5E44&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B132" s="5" t="str">
+      <c r="L131" s="4" t="str">
+        <f t="shared" ref="L131:L139" si="32">SUBSTITUTE(_xlfn.CONCAT("&lt;td style='background-color: rgba(",E131,",",F131,",",G131,", 1); color: ",J131,";'&gt;",A131,"&lt;/td&gt;"),"'","""")</f>
+        <v>&lt;td style="background-color: rgba(122,94,68, 1); color: #FFFFFF;"&gt;#7A5E44&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" s="4" t="str">
         <f t="shared" si="22"/>
         <v>54</v>
       </c>
-      <c r="C132" s="5" t="str">
+      <c r="C132" s="4" t="str">
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-      <c r="D132" s="5" t="str">
+      <c r="D132" s="4" t="str">
         <f t="shared" si="24"/>
         <v>17</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="4">
         <f t="shared" si="25"/>
         <v>84</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="4">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="4">
         <f t="shared" si="27"/>
         <v>23</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="4">
         <f t="shared" si="28"/>
         <v>157</v>
       </c>
-      <c r="I132" s="5" t="str">
+      <c r="I132" s="4" t="str">
         <f t="shared" si="29"/>
         <v>dark</v>
       </c>
-      <c r="J132" s="5" t="str">
+      <c r="J132" s="4" t="str">
         <f t="shared" si="30"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K132" s="5" t="str">
+      <c r="K132" s="4" t="str">
         <f t="shared" si="31"/>
         <v>{"background": "#543217", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L132" s="5" t="str">
+      <c r="L132" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;td style="background-color: #543217; color: #FFFFFF;"&gt;#543217&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B133" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(84,50,23, 1); color: #FFFFFF;"&gt;#543217&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" s="4" t="str">
         <f t="shared" si="22"/>
         <v>4F</v>
       </c>
-      <c r="C133" s="5" t="str">
+      <c r="C133" s="4" t="str">
         <f t="shared" si="23"/>
         <v>3E</v>
       </c>
-      <c r="D133" s="5" t="str">
+      <c r="D133" s="4" t="str">
         <f t="shared" si="24"/>
         <v>33</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="4">
         <f t="shared" si="25"/>
         <v>79</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="4">
         <f t="shared" si="26"/>
         <v>62</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G133" s="4">
         <f t="shared" si="27"/>
         <v>51</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133" s="4">
         <f t="shared" si="28"/>
         <v>192</v>
       </c>
-      <c r="I133" s="5" t="str">
+      <c r="I133" s="4" t="str">
         <f t="shared" si="29"/>
         <v>dark</v>
       </c>
-      <c r="J133" s="5" t="str">
+      <c r="J133" s="4" t="str">
         <f t="shared" si="30"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K133" s="5" t="str">
+      <c r="K133" s="4" t="str">
         <f t="shared" si="31"/>
         <v>{"background": "#4F3E33", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L133" s="5" t="str">
+      <c r="L133" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;td style="background-color: #4F3E33; color: #FFFFFF;"&gt;#4F3E33&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B134" s="5" t="str">
+        <v>&lt;td style="background-color: rgba(79,62,51, 1); color: #FFFFFF;"&gt;#4F3E33&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" s="4" t="str">
         <f t="shared" si="22"/>
         <v>30</v>
       </c>
-      <c r="C134" s="5" t="str">
+      <c r="C134" s="4" t="str">
         <f t="shared" si="23"/>
         <v>1D</v>
       </c>
-      <c r="D134" s="5" t="str">
+      <c r="D134" s="4" t="str">
         <f t="shared" si="24"/>
         <v>19</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="4">
         <f t="shared" si="25"/>
         <v>48</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="4">
         <f t="shared" si="26"/>
         <v>29</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="4">
         <f t="shared" si="27"/>
         <v>25</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="4">
         <f t="shared" si="28"/>
         <v>102</v>
       </c>
-      <c r="I134" s="5" t="str">
+      <c r="I134" s="4" t="str">
         <f t="shared" si="29"/>
         <v>dark</v>
       </c>
-      <c r="J134" s="5" t="str">
+      <c r="J134" s="4" t="str">
         <f t="shared" si="30"/>
         <v>#FFFFFF</v>
       </c>
-      <c r="K134" s="5" t="str">
+      <c r="K134" s="4" t="str">
         <f t="shared" si="31"/>
         <v>{"background": "#301D19", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L134" s="5" t="str">
+      <c r="L134" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;td style="background-color: #301D19; color: #FFFFFF;"&gt;#301D19&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B135" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(48,29,25, 1); color: #FFFFFF;"&gt;#301D19&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" s="5" t="str">
         <f>MID(A135,2,2)</f>
         <v>F2</v>
       </c>
-      <c r="C135" s="4" t="str">
+      <c r="C135" s="5" t="str">
         <f>MID(A135,4,2)</f>
         <v>50</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D135" s="5" t="str">
         <f>MID(A135,6,2)</f>
         <v>22</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="5">
         <f t="shared" ref="E135:G139" si="33">HEX2DEC(B135)</f>
         <v>242</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="5">
         <f t="shared" si="33"/>
         <v>80</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="5">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="H135" s="4">
+      <c r="H135" s="5">
         <f>SUM(E135:G135)</f>
         <v>356</v>
       </c>
-      <c r="I135" s="4" t="str">
+      <c r="I135" s="5" t="str">
         <f>IF(H135&gt;382,"light","dark")</f>
         <v>dark</v>
       </c>
-      <c r="J135" s="4" t="str">
+      <c r="J135" s="5" t="str">
         <f>IF(H135&gt;382,"#000000","#FFFFFF")</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="K135" s="4" t="str">
+      <c r="K135" s="5" t="str">
         <f t="shared" si="31"/>
         <v>{"background": "#F25022", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L135" s="4" t="str">
+      <c r="L135" s="5" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;td style="background-color: #F25022; color: #FFFFFF;"&gt;#F25022&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B136" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(242,80,34, 1); color: #FFFFFF;"&gt;#F25022&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B136" s="5" t="str">
         <f>MID(A136,2,2)</f>
         <v>7F</v>
       </c>
-      <c r="C136" s="4" t="str">
+      <c r="C136" s="5" t="str">
         <f>MID(A136,4,2)</f>
         <v>BA</v>
       </c>
-      <c r="D136" s="4" t="str">
+      <c r="D136" s="5" t="str">
         <f>MID(A136,6,2)</f>
         <v>00</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="5">
         <f t="shared" si="33"/>
         <v>127</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="5">
         <f t="shared" si="33"/>
         <v>186</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="5">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="H136" s="4">
+      <c r="H136" s="5">
         <f>SUM(E136:G136)</f>
         <v>313</v>
       </c>
-      <c r="I136" s="4" t="str">
+      <c r="I136" s="5" t="str">
         <f>IF(H136&gt;382,"light","dark")</f>
         <v>dark</v>
       </c>
-      <c r="J136" s="4" t="str">
+      <c r="J136" s="5" t="str">
         <f>IF(H136&gt;382,"#000000","#FFFFFF")</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="K136" s="4" t="str">
+      <c r="K136" s="5" t="str">
         <f t="shared" si="31"/>
         <v>{"background": "#7FBA00", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L136" s="4" t="str">
+      <c r="L136" s="5" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;td style="background-color: #7FBA00; color: #FFFFFF;"&gt;#7FBA00&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B137" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(127,186,0, 1); color: #FFFFFF;"&gt;#7FBA00&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B137" s="5" t="str">
         <f>MID(A137,2,2)</f>
         <v>00</v>
       </c>
-      <c r="C137" s="4" t="str">
+      <c r="C137" s="5" t="str">
         <f>MID(A137,4,2)</f>
         <v>A4</v>
       </c>
-      <c r="D137" s="4" t="str">
+      <c r="D137" s="5" t="str">
         <f>MID(A137,6,2)</f>
         <v>EF</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="5">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="5">
         <f t="shared" si="33"/>
         <v>164</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="5">
         <f t="shared" si="33"/>
         <v>239</v>
       </c>
-      <c r="H137" s="4">
+      <c r="H137" s="5">
         <f>SUM(E137:G137)</f>
         <v>403</v>
       </c>
-      <c r="I137" s="4" t="str">
+      <c r="I137" s="5" t="str">
         <f>IF(H137&gt;382,"light","dark")</f>
         <v>light</v>
       </c>
-      <c r="J137" s="4" t="str">
+      <c r="J137" s="5" t="str">
         <f>IF(H137&gt;382,"#000000","#FFFFFF")</f>
         <v>#000000</v>
       </c>
-      <c r="K137" s="4" t="str">
+      <c r="K137" s="5" t="str">
         <f t="shared" si="31"/>
         <v>{"background": "#00A4EF", "foreground": "#000000"}</v>
       </c>
-      <c r="L137" s="4" t="str">
+      <c r="L137" s="5" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;td style="background-color: #00A4EF; color: #000000;"&gt;#00A4EF&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+        <v>&lt;td style="background-color: rgba(0,164,239, 1); color: #000000;"&gt;#00A4EF&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B138" s="4" t="str">
+      <c r="B138" s="5" t="str">
         <f>MID(A138,2,2)</f>
         <v>FF</v>
       </c>
-      <c r="C138" s="4" t="str">
+      <c r="C138" s="5" t="str">
         <f>MID(A138,4,2)</f>
         <v>B9</v>
       </c>
-      <c r="D138" s="4" t="str">
+      <c r="D138" s="5" t="str">
         <f>MID(A138,6,2)</f>
         <v>00</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="5">
         <f t="shared" si="33"/>
         <v>255</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="5">
         <f t="shared" si="33"/>
         <v>185</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="5">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="H138" s="4">
+      <c r="H138" s="5">
         <f>SUM(E138:G138)</f>
         <v>440</v>
       </c>
-      <c r="I138" s="4" t="str">
+      <c r="I138" s="5" t="str">
         <f>IF(H138&gt;382,"light","dark")</f>
         <v>light</v>
       </c>
-      <c r="J138" s="4" t="str">
+      <c r="J138" s="5" t="str">
         <f>IF(H138&gt;382,"#000000","#FFFFFF")</f>
         <v>#000000</v>
       </c>
-      <c r="K138" s="4" t="str">
+      <c r="K138" s="5" t="str">
         <f t="shared" si="31"/>
         <v>{"background": "#FFB900", "foreground": "#000000"}</v>
       </c>
-      <c r="L138" s="4" t="str">
+      <c r="L138" s="5" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;td style="background-color: #FFB900; color: #000000;"&gt;#FFB900&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B139" s="4" t="str">
+        <v>&lt;td style="background-color: rgba(255,185,0, 1); color: #000000;"&gt;#FFB900&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" s="5" t="str">
         <f>MID(A139,2,2)</f>
         <v>73</v>
       </c>
-      <c r="C139" s="4" t="str">
+      <c r="C139" s="5" t="str">
         <f>MID(A139,4,2)</f>
         <v>73</v>
       </c>
-      <c r="D139" s="4" t="str">
+      <c r="D139" s="5" t="str">
         <f>MID(A139,6,2)</f>
         <v>73</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="5">
         <f t="shared" si="33"/>
         <v>115</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="5">
         <f t="shared" si="33"/>
         <v>115</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="5">
         <f t="shared" si="33"/>
         <v>115</v>
       </c>
-      <c r="H139" s="4">
+      <c r="H139" s="5">
         <f>SUM(E139:G139)</f>
         <v>345</v>
       </c>
-      <c r="I139" s="4" t="str">
+      <c r="I139" s="5" t="str">
         <f>IF(H139&gt;382,"light","dark")</f>
         <v>dark</v>
       </c>
-      <c r="J139" s="4" t="str">
+      <c r="J139" s="5" t="str">
         <f>IF(H139&gt;382,"#000000","#FFFFFF")</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="K139" s="4" t="str">
+      <c r="K139" s="5" t="str">
         <f t="shared" si="31"/>
         <v>{"background": "#737373", "foreground": "#FFFFFF"}</v>
       </c>
-      <c r="L139" s="4" t="str">
+      <c r="L139" s="5" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;td style="background-color: #737373; color: #FFFFFF;"&gt;#737373&lt;/td&gt;</v>
+        <v>&lt;td style="background-color: rgba(115,115,115, 1); color: #FFFFFF;"&gt;#737373&lt;/td&gt;</v>
       </c>
     </row>
   </sheetData>
